--- a/Data/FRED_data.xlsx
+++ b/Data/FRED_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -15,699 +15,720 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+  <si>
+    <t>1957-04-01</t>
+  </si>
+  <si>
+    <t>1957-07-01</t>
+  </si>
+  <si>
+    <t>1957-10-01</t>
+  </si>
+  <si>
+    <t>1958-01-01</t>
+  </si>
+  <si>
+    <t>1958-04-01</t>
+  </si>
+  <si>
+    <t>1958-07-01</t>
+  </si>
+  <si>
+    <t>1958-10-01</t>
+  </si>
+  <si>
+    <t>1959-01-01</t>
+  </si>
+  <si>
+    <t>1959-04-01</t>
+  </si>
+  <si>
+    <t>1959-07-01</t>
+  </si>
+  <si>
+    <t>1959-10-01</t>
+  </si>
+  <si>
+    <t>1960-01-01</t>
+  </si>
+  <si>
+    <t>1960-04-01</t>
+  </si>
+  <si>
+    <t>1960-07-01</t>
+  </si>
+  <si>
+    <t>1960-10-01</t>
+  </si>
+  <si>
+    <t>1961-01-01</t>
+  </si>
+  <si>
+    <t>1961-04-01</t>
+  </si>
+  <si>
+    <t>1961-07-01</t>
+  </si>
+  <si>
+    <t>1961-10-01</t>
+  </si>
+  <si>
+    <t>1962-01-01</t>
+  </si>
+  <si>
+    <t>1962-04-01</t>
+  </si>
+  <si>
+    <t>1962-07-01</t>
+  </si>
+  <si>
+    <t>1962-10-01</t>
+  </si>
+  <si>
+    <t>1963-01-01</t>
+  </si>
+  <si>
+    <t>1963-04-01</t>
+  </si>
+  <si>
+    <t>1963-07-01</t>
+  </si>
+  <si>
+    <t>1963-10-01</t>
+  </si>
+  <si>
+    <t>1964-01-01</t>
+  </si>
+  <si>
+    <t>1964-04-01</t>
+  </si>
+  <si>
+    <t>1964-07-01</t>
+  </si>
+  <si>
+    <t>1964-10-01</t>
+  </si>
+  <si>
+    <t>1965-01-01</t>
+  </si>
+  <si>
+    <t>1965-04-01</t>
+  </si>
+  <si>
+    <t>1965-07-01</t>
+  </si>
+  <si>
+    <t>1965-10-01</t>
+  </si>
+  <si>
+    <t>1966-01-01</t>
+  </si>
+  <si>
+    <t>1966-04-01</t>
+  </si>
+  <si>
+    <t>1966-07-01</t>
+  </si>
+  <si>
+    <t>1966-10-01</t>
+  </si>
+  <si>
+    <t>1967-01-01</t>
+  </si>
+  <si>
+    <t>1967-04-01</t>
+  </si>
+  <si>
+    <t>1967-07-01</t>
+  </si>
+  <si>
+    <t>1967-10-01</t>
+  </si>
+  <si>
+    <t>1968-01-01</t>
+  </si>
+  <si>
+    <t>1968-04-01</t>
+  </si>
+  <si>
+    <t>1968-07-01</t>
+  </si>
+  <si>
+    <t>1968-10-01</t>
+  </si>
+  <si>
+    <t>1969-01-01</t>
+  </si>
+  <si>
+    <t>1969-04-01</t>
+  </si>
+  <si>
+    <t>1969-07-01</t>
+  </si>
+  <si>
+    <t>1969-10-01</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>1970-04-01</t>
+  </si>
+  <si>
+    <t>1970-07-01</t>
+  </si>
+  <si>
+    <t>1970-10-01</t>
+  </si>
+  <si>
+    <t>1971-01-01</t>
+  </si>
+  <si>
+    <t>1971-04-01</t>
+  </si>
+  <si>
+    <t>1971-07-01</t>
+  </si>
+  <si>
+    <t>1971-10-01</t>
+  </si>
+  <si>
+    <t>1972-01-01</t>
+  </si>
+  <si>
+    <t>1972-04-01</t>
+  </si>
+  <si>
+    <t>1972-07-01</t>
+  </si>
+  <si>
+    <t>1972-10-01</t>
+  </si>
+  <si>
+    <t>1973-01-01</t>
+  </si>
+  <si>
+    <t>1973-04-01</t>
+  </si>
+  <si>
+    <t>1973-07-01</t>
+  </si>
+  <si>
+    <t>1973-10-01</t>
+  </si>
+  <si>
+    <t>1974-01-01</t>
+  </si>
+  <si>
+    <t>1974-04-01</t>
+  </si>
+  <si>
+    <t>1974-07-01</t>
+  </si>
+  <si>
+    <t>1974-10-01</t>
+  </si>
+  <si>
+    <t>1975-01-01</t>
+  </si>
+  <si>
+    <t>1975-04-01</t>
+  </si>
+  <si>
+    <t>1975-07-01</t>
+  </si>
+  <si>
+    <t>1975-10-01</t>
+  </si>
+  <si>
+    <t>1976-01-01</t>
+  </si>
+  <si>
+    <t>1976-04-01</t>
+  </si>
+  <si>
+    <t>1976-07-01</t>
+  </si>
+  <si>
+    <t>1976-10-01</t>
+  </si>
+  <si>
+    <t>1977-01-01</t>
+  </si>
+  <si>
+    <t>1977-04-01</t>
+  </si>
+  <si>
+    <t>1977-07-01</t>
+  </si>
+  <si>
+    <t>1977-10-01</t>
+  </si>
+  <si>
+    <t>1978-01-01</t>
+  </si>
+  <si>
+    <t>1978-04-01</t>
+  </si>
+  <si>
+    <t>1978-07-01</t>
+  </si>
+  <si>
+    <t>1978-10-01</t>
+  </si>
+  <si>
+    <t>1979-01-01</t>
+  </si>
+  <si>
+    <t>1979-04-01</t>
+  </si>
+  <si>
+    <t>1979-07-01</t>
+  </si>
+  <si>
+    <t>1979-10-01</t>
+  </si>
+  <si>
+    <t>1980-01-01</t>
+  </si>
+  <si>
+    <t>1980-04-01</t>
+  </si>
   <si>
     <t>1980-07-01</t>
   </si>
   <si>
-    <t>1976-04-01</t>
-  </si>
-  <si>
-    <t>1975-07-01</t>
+    <t>1980-10-01</t>
+  </si>
+  <si>
+    <t>1981-01-01</t>
+  </si>
+  <si>
+    <t>1981-04-01</t>
+  </si>
+  <si>
+    <t>1981-07-01</t>
+  </si>
+  <si>
+    <t>1981-10-01</t>
+  </si>
+  <si>
+    <t>1982-01-01</t>
+  </si>
+  <si>
+    <t>1982-04-01</t>
+  </si>
+  <si>
+    <t>1982-07-01</t>
+  </si>
+  <si>
+    <t>1982-10-01</t>
+  </si>
+  <si>
+    <t>1983-01-01</t>
+  </si>
+  <si>
+    <t>1983-04-01</t>
+  </si>
+  <si>
+    <t>1983-07-01</t>
+  </si>
+  <si>
+    <t>1983-10-01</t>
+  </si>
+  <si>
+    <t>1984-01-01</t>
+  </si>
+  <si>
+    <t>1984-04-01</t>
+  </si>
+  <si>
+    <t>1984-07-01</t>
+  </si>
+  <si>
+    <t>1984-10-01</t>
+  </si>
+  <si>
+    <t>1985-01-01</t>
+  </si>
+  <si>
+    <t>1985-04-01</t>
+  </si>
+  <si>
+    <t>1985-07-01</t>
+  </si>
+  <si>
+    <t>1985-10-01</t>
+  </si>
+  <si>
+    <t>1986-01-01</t>
+  </si>
+  <si>
+    <t>1986-04-01</t>
+  </si>
+  <si>
+    <t>1986-07-01</t>
+  </si>
+  <si>
+    <t>1986-10-01</t>
+  </si>
+  <si>
+    <t>1987-01-01</t>
+  </si>
+  <si>
+    <t>1987-04-01</t>
+  </si>
+  <si>
+    <t>1987-07-01</t>
+  </si>
+  <si>
+    <t>1987-10-01</t>
+  </si>
+  <si>
+    <t>1988-01-01</t>
+  </si>
+  <si>
+    <t>1988-04-01</t>
+  </si>
+  <si>
+    <t>1988-07-01</t>
+  </si>
+  <si>
+    <t>1988-10-01</t>
+  </si>
+  <si>
+    <t>1989-01-01</t>
+  </si>
+  <si>
+    <t>1989-04-01</t>
+  </si>
+  <si>
+    <t>1989-07-01</t>
+  </si>
+  <si>
+    <t>1989-10-01</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
+    <t>1990-04-01</t>
+  </si>
+  <si>
+    <t>1990-07-01</t>
+  </si>
+  <si>
+    <t>1990-10-01</t>
+  </si>
+  <si>
+    <t>1991-01-01</t>
+  </si>
+  <si>
+    <t>1991-04-01</t>
+  </si>
+  <si>
+    <t>1991-07-01</t>
+  </si>
+  <si>
+    <t>1991-10-01</t>
+  </si>
+  <si>
+    <t>1992-01-01</t>
+  </si>
+  <si>
+    <t>1992-04-01</t>
+  </si>
+  <si>
+    <t>1992-07-01</t>
+  </si>
+  <si>
+    <t>1992-10-01</t>
+  </si>
+  <si>
+    <t>1993-01-01</t>
+  </si>
+  <si>
+    <t>1993-04-01</t>
+  </si>
+  <si>
+    <t>1993-07-01</t>
+  </si>
+  <si>
+    <t>1993-10-01</t>
+  </si>
+  <si>
+    <t>1994-01-01</t>
+  </si>
+  <si>
+    <t>1994-04-01</t>
+  </si>
+  <si>
+    <t>1994-07-01</t>
+  </si>
+  <si>
+    <t>1994-10-01</t>
+  </si>
+  <si>
+    <t>1995-01-01</t>
+  </si>
+  <si>
+    <t>1995-04-01</t>
+  </si>
+  <si>
+    <t>1995-07-01</t>
+  </si>
+  <si>
+    <t>1995-10-01</t>
+  </si>
+  <si>
+    <t>1996-01-01</t>
+  </si>
+  <si>
+    <t>1996-04-01</t>
+  </si>
+  <si>
+    <t>1996-07-01</t>
+  </si>
+  <si>
+    <t>1996-10-01</t>
+  </si>
+  <si>
+    <t>1997-01-01</t>
+  </si>
+  <si>
+    <t>1997-04-01</t>
+  </si>
+  <si>
+    <t>1997-07-01</t>
+  </si>
+  <si>
+    <t>1997-10-01</t>
+  </si>
+  <si>
+    <t>1998-01-01</t>
+  </si>
+  <si>
+    <t>1998-04-01</t>
+  </si>
+  <si>
+    <t>1998-07-01</t>
+  </si>
+  <si>
+    <t>1998-10-01</t>
+  </si>
+  <si>
+    <t>1999-01-01</t>
+  </si>
+  <si>
+    <t>1999-04-01</t>
+  </si>
+  <si>
+    <t>1999-07-01</t>
+  </si>
+  <si>
+    <t>1999-10-01</t>
+  </si>
+  <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>2000-04-01</t>
+  </si>
+  <si>
+    <t>2000-07-01</t>
+  </si>
+  <si>
+    <t>2000-10-01</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>2001-04-01</t>
+  </si>
+  <si>
+    <t>2001-07-01</t>
+  </si>
+  <si>
+    <t>2001-10-01</t>
+  </si>
+  <si>
+    <t>2002-01-01</t>
+  </si>
+  <si>
+    <t>2002-04-01</t>
+  </si>
+  <si>
+    <t>2002-07-01</t>
+  </si>
+  <si>
+    <t>2002-10-01</t>
+  </si>
+  <si>
+    <t>2003-01-01</t>
+  </si>
+  <si>
+    <t>2003-04-01</t>
+  </si>
+  <si>
+    <t>2003-07-01</t>
+  </si>
+  <si>
+    <t>2003-10-01</t>
+  </si>
+  <si>
+    <t>2004-01-01</t>
+  </si>
+  <si>
+    <t>2004-04-01</t>
+  </si>
+  <si>
+    <t>2004-07-01</t>
+  </si>
+  <si>
+    <t>2004-10-01</t>
   </si>
   <si>
     <t>2005-01-01</t>
   </si>
   <si>
-    <t>2001-01-01</t>
-  </si>
-  <si>
-    <t>1995-01-01</t>
-  </si>
-  <si>
-    <t>1974-01-01</t>
+    <t>2005-04-01</t>
+  </si>
+  <si>
+    <t>2005-07-01</t>
+  </si>
+  <si>
+    <t>2005-10-01</t>
+  </si>
+  <si>
+    <t>2006-01-01</t>
+  </si>
+  <si>
+    <t>2006-04-01</t>
+  </si>
+  <si>
+    <t>2006-07-01</t>
+  </si>
+  <si>
+    <t>2006-10-01</t>
+  </si>
+  <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
+    <t>2007-04-01</t>
+  </si>
+  <si>
+    <t>2007-07-01</t>
+  </si>
+  <si>
+    <t>2007-10-01</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>2008-04-01</t>
+  </si>
+  <si>
+    <t>2008-07-01</t>
+  </si>
+  <si>
+    <t>2008-10-01</t>
+  </si>
+  <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>2009-04-01</t>
+  </si>
+  <si>
+    <t>2009-07-01</t>
+  </si>
+  <si>
+    <t>2009-10-01</t>
+  </si>
+  <si>
+    <t>2010-01-01</t>
   </si>
   <si>
     <t>2010-04-01</t>
   </si>
   <si>
-    <t>2008-10-01</t>
-  </si>
-  <si>
-    <t>1974-07-01</t>
-  </si>
-  <si>
-    <t>1986-01-01</t>
-  </si>
-  <si>
-    <t>1986-07-01</t>
-  </si>
-  <si>
-    <t>1988-01-01</t>
-  </si>
-  <si>
-    <t>1998-07-01</t>
-  </si>
-  <si>
-    <t>1989-07-01</t>
-  </si>
-  <si>
-    <t>1997-01-01</t>
-  </si>
-  <si>
-    <t>1978-07-01</t>
-  </si>
-  <si>
-    <t>1978-10-01</t>
-  </si>
-  <si>
-    <t>1989-10-01</t>
-  </si>
-  <si>
-    <t>2006-04-01</t>
-  </si>
-  <si>
-    <t>1985-10-01</t>
-  </si>
-  <si>
-    <t>1958-04-01</t>
+    <t>2010-07-01</t>
+  </si>
+  <si>
+    <t>2010-10-01</t>
+  </si>
+  <si>
+    <t>2011-01-01</t>
+  </si>
+  <si>
+    <t>2011-04-01</t>
+  </si>
+  <si>
+    <t>2011-07-01</t>
+  </si>
+  <si>
+    <t>2011-10-01</t>
+  </si>
+  <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2012-04-01</t>
+  </si>
+  <si>
+    <t>2012-07-01</t>
+  </si>
+  <si>
+    <t>2012-10-01</t>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+  </si>
+  <si>
+    <t>2013-04-01</t>
+  </si>
+  <si>
+    <t>2013-07-01</t>
+  </si>
+  <si>
+    <t>2013-10-01</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2014-04-01</t>
+  </si>
+  <si>
+    <t>2014-07-01</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>GDP_growth</t>
+  </si>
+  <si>
+    <t>IP_growth</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>Term</t>
   </si>
   <si>
     <t>Unemp_rate</t>
-  </si>
-  <si>
-    <t>2000-07-01</t>
-  </si>
-  <si>
-    <t>2011-07-01</t>
-  </si>
-  <si>
-    <t>1997-07-01</t>
-  </si>
-  <si>
-    <t>2010-07-01</t>
-  </si>
-  <si>
-    <t>1965-07-01</t>
-  </si>
-  <si>
-    <t>1962-04-01</t>
-  </si>
-  <si>
-    <t>1987-04-01</t>
-  </si>
-  <si>
-    <t>2011-04-01</t>
-  </si>
-  <si>
-    <t>1983-04-01</t>
-  </si>
-  <si>
-    <t>1989-01-01</t>
-  </si>
-  <si>
-    <t>1968-01-01</t>
-  </si>
-  <si>
-    <t>1962-10-01</t>
-  </si>
-  <si>
-    <t>1978-01-01</t>
-  </si>
-  <si>
-    <t>Inflation</t>
-  </si>
-  <si>
-    <t>1959-01-01</t>
-  </si>
-  <si>
-    <t>1983-07-01</t>
-  </si>
-  <si>
-    <t>1979-10-01</t>
-  </si>
-  <si>
-    <t>1982-04-01</t>
-  </si>
-  <si>
-    <t>2002-04-01</t>
-  </si>
-  <si>
-    <t>1958-07-01</t>
-  </si>
-  <si>
-    <t>2008-04-01</t>
-  </si>
-  <si>
-    <t>1986-10-01</t>
-  </si>
-  <si>
-    <t>1984-01-01</t>
-  </si>
-  <si>
-    <t>2007-07-01</t>
-  </si>
-  <si>
-    <t>1960-10-01</t>
-  </si>
-  <si>
-    <t>1980-04-01</t>
-  </si>
-  <si>
-    <t>1991-07-01</t>
-  </si>
-  <si>
-    <t>1998-01-01</t>
-  </si>
-  <si>
-    <t>1995-07-01</t>
-  </si>
-  <si>
-    <t>2001-04-01</t>
-  </si>
-  <si>
-    <t>1985-04-01</t>
-  </si>
-  <si>
-    <t>2007-01-01</t>
-  </si>
-  <si>
-    <t>2007-10-01</t>
-  </si>
-  <si>
-    <t>2008-01-01</t>
-  </si>
-  <si>
-    <t>1971-04-01</t>
-  </si>
-  <si>
-    <t>1990-04-01</t>
-  </si>
-  <si>
-    <t>1979-07-01</t>
-  </si>
-  <si>
-    <t>1959-04-01</t>
-  </si>
-  <si>
-    <t>1994-04-01</t>
-  </si>
-  <si>
-    <t>1991-04-01</t>
-  </si>
-  <si>
-    <t>1989-04-01</t>
-  </si>
-  <si>
-    <t>1965-04-01</t>
-  </si>
-  <si>
-    <t>1988-07-01</t>
-  </si>
-  <si>
-    <t>1974-10-01</t>
-  </si>
-  <si>
-    <t>1994-07-01</t>
-  </si>
-  <si>
-    <t>1957-07-01</t>
-  </si>
-  <si>
-    <t>1962-01-01</t>
-  </si>
-  <si>
-    <t>2013-01-01</t>
-  </si>
-  <si>
-    <t>2000-10-01</t>
-  </si>
-  <si>
-    <t>1995-04-01</t>
-  </si>
-  <si>
-    <t>1963-07-01</t>
-  </si>
-  <si>
-    <t>1979-01-01</t>
-  </si>
-  <si>
-    <t>1990-07-01</t>
-  </si>
-  <si>
-    <t>1993-01-01</t>
-  </si>
-  <si>
-    <t>1976-01-01</t>
-  </si>
-  <si>
-    <t>1973-10-01</t>
-  </si>
-  <si>
-    <t>1997-04-01</t>
-  </si>
-  <si>
-    <t>1965-01-01</t>
-  </si>
-  <si>
-    <t>1968-07-01</t>
-  </si>
-  <si>
-    <t>2003-07-01</t>
-  </si>
-  <si>
-    <t>2011-01-01</t>
-  </si>
-  <si>
-    <t>1983-01-01</t>
-  </si>
-  <si>
-    <t>2009-10-01</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>2005-10-01</t>
-  </si>
-  <si>
-    <t>2001-10-01</t>
-  </si>
-  <si>
-    <t>2006-10-01</t>
-  </si>
-  <si>
-    <t>1966-10-01</t>
-  </si>
-  <si>
-    <t>1992-10-01</t>
-  </si>
-  <si>
-    <t>1999-07-01</t>
-  </si>
-  <si>
-    <t>1969-04-01</t>
-  </si>
-  <si>
-    <t>1963-01-01</t>
-  </si>
-  <si>
-    <t>1991-01-01</t>
-  </si>
-  <si>
-    <t>2003-10-01</t>
-  </si>
-  <si>
-    <t>1992-07-01</t>
-  </si>
-  <si>
-    <t>2003-04-01</t>
-  </si>
-  <si>
-    <t>1969-07-01</t>
-  </si>
-  <si>
-    <t>1987-01-01</t>
-  </si>
-  <si>
-    <t>1971-01-01</t>
-  </si>
-  <si>
-    <t>1998-10-01</t>
-  </si>
-  <si>
-    <t>2010-01-01</t>
-  </si>
-  <si>
-    <t>1968-04-01</t>
-  </si>
-  <si>
-    <t>2002-01-01</t>
-  </si>
-  <si>
-    <t>1970-07-01</t>
-  </si>
-  <si>
-    <t>1999-04-01</t>
-  </si>
-  <si>
-    <t>1982-01-01</t>
-  </si>
-  <si>
-    <t>1957-04-01</t>
-  </si>
-  <si>
-    <t>1984-07-01</t>
-  </si>
-  <si>
-    <t>1983-10-01</t>
-  </si>
-  <si>
-    <t>1987-10-01</t>
-  </si>
-  <si>
-    <t>1981-01-01</t>
-  </si>
-  <si>
-    <t>1984-10-01</t>
-  </si>
-  <si>
-    <t>1994-01-01</t>
-  </si>
-  <si>
-    <t>2005-07-01</t>
-  </si>
-  <si>
-    <t>2009-07-01</t>
-  </si>
-  <si>
-    <t>2008-07-01</t>
-  </si>
-  <si>
-    <t>1961-04-01</t>
-  </si>
-  <si>
-    <t>1975-10-01</t>
-  </si>
-  <si>
-    <t>1963-10-01</t>
-  </si>
-  <si>
-    <t>1964-07-01</t>
-  </si>
-  <si>
-    <t>1999-01-01</t>
-  </si>
-  <si>
-    <t>1970-01-01</t>
-  </si>
-  <si>
-    <t>1961-01-01</t>
-  </si>
-  <si>
-    <t>2010-10-01</t>
-  </si>
-  <si>
-    <t>1963-04-01</t>
-  </si>
-  <si>
-    <t>1962-07-01</t>
-  </si>
-  <si>
-    <t>1967-10-01</t>
-  </si>
-  <si>
-    <t>1981-04-01</t>
-  </si>
-  <si>
-    <t>1990-01-01</t>
-  </si>
-  <si>
-    <t>1959-10-01</t>
-  </si>
-  <si>
-    <t>1965-10-01</t>
-  </si>
-  <si>
-    <t>1990-10-01</t>
-  </si>
-  <si>
-    <t>1966-01-01</t>
-  </si>
-  <si>
-    <t>1964-04-01</t>
-  </si>
-  <si>
-    <t>2005-04-01</t>
-  </si>
-  <si>
-    <t>2003-01-01</t>
-  </si>
-  <si>
-    <t>1960-07-01</t>
-  </si>
-  <si>
-    <t>1996-10-01</t>
-  </si>
-  <si>
-    <t>1999-10-01</t>
-  </si>
-  <si>
-    <t>1978-04-01</t>
-  </si>
-  <si>
-    <t>1996-01-01</t>
-  </si>
-  <si>
-    <t>1969-01-01</t>
-  </si>
-  <si>
-    <t>1960-04-01</t>
-  </si>
-  <si>
-    <t>1993-04-01</t>
-  </si>
-  <si>
-    <t>2007-04-01</t>
-  </si>
-  <si>
-    <t>2004-04-01</t>
-  </si>
-  <si>
-    <t>1982-07-01</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>1970-10-01</t>
-  </si>
-  <si>
-    <t>1977-07-01</t>
-  </si>
-  <si>
-    <t>1964-01-01</t>
-  </si>
-  <si>
-    <t>1967-07-01</t>
-  </si>
-  <si>
-    <t>IP_growth</t>
-  </si>
-  <si>
-    <t>1972-01-01</t>
-  </si>
-  <si>
-    <t>1970-04-01</t>
-  </si>
-  <si>
-    <t>1971-07-01</t>
-  </si>
-  <si>
-    <t>2012-10-01</t>
-  </si>
-  <si>
-    <t>1996-04-01</t>
-  </si>
-  <si>
-    <t>1976-10-01</t>
-  </si>
-  <si>
-    <t>1975-01-01</t>
-  </si>
-  <si>
-    <t>1994-10-01</t>
-  </si>
-  <si>
-    <t>1977-04-01</t>
-  </si>
-  <si>
-    <t>1960-01-01</t>
-  </si>
-  <si>
-    <t>1961-10-01</t>
-  </si>
-  <si>
-    <t>1993-07-01</t>
-  </si>
-  <si>
-    <t>1981-07-01</t>
-  </si>
-  <si>
-    <t>1973-07-01</t>
-  </si>
-  <si>
-    <t>1964-10-01</t>
-  </si>
-  <si>
-    <t>1969-10-01</t>
-  </si>
-  <si>
-    <t>1987-07-01</t>
-  </si>
-  <si>
-    <t>1982-10-01</t>
-  </si>
-  <si>
-    <t>GDP_growth</t>
-  </si>
-  <si>
-    <t>1992-01-01</t>
-  </si>
-  <si>
-    <t>2011-10-01</t>
-  </si>
-  <si>
-    <t>1957-10-01</t>
-  </si>
-  <si>
-    <t>1958-01-01</t>
-  </si>
-  <si>
-    <t>1998-04-01</t>
-  </si>
-  <si>
-    <t>1971-10-01</t>
-  </si>
-  <si>
-    <t>2006-07-01</t>
-  </si>
-  <si>
-    <t>2002-10-01</t>
-  </si>
-  <si>
-    <t>2012-01-01</t>
-  </si>
-  <si>
-    <t>1977-01-01</t>
-  </si>
-  <si>
-    <t>2000-04-01</t>
-  </si>
-  <si>
-    <t>2004-07-01</t>
-  </si>
-  <si>
-    <t>1966-04-01</t>
-  </si>
-  <si>
-    <t>1980-10-01</t>
-  </si>
-  <si>
-    <t>2006-01-01</t>
-  </si>
-  <si>
-    <t>1985-07-01</t>
-  </si>
-  <si>
-    <t>2012-04-01</t>
-  </si>
-  <si>
-    <t>1973-04-01</t>
-  </si>
-  <si>
-    <t>1992-04-01</t>
-  </si>
-  <si>
-    <t>2001-07-01</t>
-  </si>
-  <si>
-    <t>1972-10-01</t>
-  </si>
-  <si>
-    <t>2004-10-01</t>
-  </si>
-  <si>
-    <t>1996-07-01</t>
-  </si>
-  <si>
-    <t>1972-04-01</t>
-  </si>
-  <si>
-    <t>1974-04-01</t>
-  </si>
-  <si>
-    <t>1981-10-01</t>
-  </si>
-  <si>
-    <t>1977-10-01</t>
-  </si>
-  <si>
-    <t>1961-07-01</t>
-  </si>
-  <si>
-    <t>1995-10-01</t>
-  </si>
-  <si>
-    <t>1979-04-01</t>
-  </si>
-  <si>
-    <t>2000-01-01</t>
-  </si>
-  <si>
-    <t>1967-04-01</t>
-  </si>
-  <si>
-    <t>2002-07-01</t>
-  </si>
-  <si>
-    <t>1966-07-01</t>
-  </si>
-  <si>
-    <t>1976-07-01</t>
-  </si>
-  <si>
-    <t>1988-04-01</t>
-  </si>
-  <si>
-    <t>1985-01-01</t>
-  </si>
-  <si>
-    <t>1968-10-01</t>
-  </si>
-  <si>
-    <t>1993-10-01</t>
-  </si>
-  <si>
-    <t>1967-01-01</t>
-  </si>
-  <si>
-    <t>1988-10-01</t>
-  </si>
-  <si>
-    <t>1975-04-01</t>
-  </si>
-  <si>
-    <t>2013-04-01</t>
-  </si>
-  <si>
-    <t>1958-10-01</t>
-  </si>
-  <si>
-    <t>1997-10-01</t>
-  </si>
-  <si>
-    <t>1959-07-01</t>
-  </si>
-  <si>
-    <t>2009-01-01</t>
-  </si>
-  <si>
-    <t>1986-04-01</t>
-  </si>
-  <si>
-    <t>1980-01-01</t>
-  </si>
-  <si>
-    <t>2009-04-01</t>
-  </si>
-  <si>
-    <t>2012-07-01</t>
-  </si>
-  <si>
-    <t>1972-07-01</t>
-  </si>
-  <si>
-    <t>2004-01-01</t>
-  </si>
-  <si>
-    <t>1984-04-01</t>
-  </si>
-  <si>
-    <t>1991-10-01</t>
-  </si>
-  <si>
-    <t>1973-01-01</t>
   </si>
 </sst>
 </file>
@@ -769,7 +790,7 @@
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,120 +1087,120 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" width="9.10" min="1"/>
-    <col max="3" collapsed="0" width="9.10" min="3"/>
-    <col max="2" collapsed="0" width="9.10" min="2"/>
-    <col max="5" collapsed="0" width="9.10" min="5"/>
-    <col max="4" collapsed="0" width="9.10" min="4"/>
-    <col max="7" collapsed="0" width="9.10" min="7"/>
-    <col max="6" collapsed="0" width="9.10" min="6"/>
+    <col max="1" min="1" width="9.10"/>
+    <col max="3" min="3" width="9.10"/>
+    <col max="2" min="2" width="9.10"/>
+    <col max="5" min="5" width="9.10"/>
+    <col max="4" min="4" width="9.10"/>
+    <col max="7" min="7" width="9.10"/>
+    <col max="6" min="6" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c s="1" r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c s="1" r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c s="1" r="D1" t="s">
-        <v>150</v>
-      </c>
-      <c s="1" r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c s="1" r="F1" t="s">
-        <v>155</v>
-      </c>
-      <c s="1" r="G1" t="s">
-        <v>36</v>
+      <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c s="1" r="A2" t="s">
-        <v>109</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="C2" t="n">
         <v>-0.010000000000000231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77000000000000046</v>
+        <v>0.7700000000000005</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0022091310751105597</v>
+        <v>-0.00220704151340001</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0048983389431628277</v>
+        <v>-0.004897646484775753</v>
       </c>
       <c r="G2" t="n">
         <v>0.010526315789473717</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c s="1" r="A3" t="s">
-        <v>68</v>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12000000000000011</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74000000000000021</v>
+        <v>0.7400000000000002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009734668775259081</v>
+        <v>0.009725440629169357</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0049224507754921376</v>
+        <v>0.004921751483628389</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0069444444444444198</v>
+        <v>0.00694444444444442</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c s="1" r="A4" t="s">
-        <v>177</v>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>4.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.039999999999999591</v>
+        <v>-0.03999999999999959</v>
       </c>
       <c r="D4" t="n">
-        <v>0.89000000000000057</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.010267297786440199</v>
+        <v>-0.010257658472130449</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.023255707887511412</v>
+        <v>-0.023256980514298364</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0068965517241379448</v>
+        <v>0.006896551724137945</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c s="1" r="A5" t="s">
-        <v>178</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C5" t="n">
         <v>0.43999999999999995</v>
@@ -1188,87 +1209,87 @@
         <v>1.23</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.025916939198930899</v>
+        <v>-0.025892355255761723</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.060151569628173474</v>
+        <v>-0.06014781337977204</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0034246575342467001</v>
+        <v>0.0034246575342467</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c s="1" r="A6" t="s">
-        <v>21</v>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="C6" t="n">
-        <v>1.4299999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="D6" t="n">
         <v>1.0699999999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0066064981949458534</v>
+        <v>0.00656399899015403</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.049334996050219404</v>
+        <v>-0.0493328564473986</v>
       </c>
       <c r="G6" t="n">
         <v>0.0068259385665527805</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c s="1" r="A7" t="s">
-        <v>42</v>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>7.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5900000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86000000000000032</v>
+        <v>0.8600000000000003</v>
       </c>
       <c r="E7" t="n">
-        <v>0.023096510418534555</v>
+        <v>0.023146655200831256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.051895247900411334</v>
+        <v>0.051892880470280955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0033898305084745228</v>
+        <v>0.003389830508474523</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c s="1" r="A8" t="s">
-        <v>218</v>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.60999999999999988</v>
+        <v>0.6099999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.80999999999999961</v>
+        <v>0.8099999999999996</v>
       </c>
       <c r="E8" t="n">
-        <v>0.023416412521470864</v>
+        <v>0.023393451234459794</v>
       </c>
       <c r="F8" t="n">
-        <v>0.041331100920621644</v>
+        <v>0.04133011435327294</v>
       </c>
       <c r="G8" t="n">
         <v>0.0033783783783782884</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c s="1" r="A9" t="s">
-        <v>37</v>
+      <c r="A9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>6.0</v>
@@ -1280,225 +1301,225 @@
         <v>0.75</v>
       </c>
       <c r="E9" t="n">
-        <v>0.018599075184106972</v>
+        <v>0.018581254491325305</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04609820798106834</v>
+        <v>0.046096381174091094</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0067340067340067034</v>
+        <v>0.006734006734006703</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c s="1" r="A10" t="s">
-        <v>60</v>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.39999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.62999999999999989</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.024312327661577759</v>
+        <v>0.024323053147886853</v>
       </c>
       <c r="F10" t="n">
-        <v>0.056303532824343971</v>
+        <v>0.05630469380589087</v>
       </c>
       <c r="G10" t="n">
         <v>0.0033444816053511683</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c s="1" r="A11" t="s">
-        <v>220</v>
+      <c r="A11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C11" t="n">
         <v>0.010000000000000675</v>
       </c>
       <c r="D11" t="n">
-        <v>0.61000000000000032</v>
+        <v>0.6100000000000003</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0019369029250517755</v>
+        <v>-0.0019350606756314281</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0081130209885018623</v>
+        <v>-0.008111865167763188</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0066666666666665986</v>
+        <v>0.006666666666666599</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c s="1" r="A12" t="s">
-        <v>132</v>
+      <c r="A12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.26999999999999957</v>
+        <v>-0.2699999999999996</v>
       </c>
       <c r="D12" t="n">
-        <v>0.70999999999999996</v>
+        <v>0.71</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0039471087428457619</v>
+        <v>0.003943347244586004</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.042054813602409924</v>
+        <v>-0.04205747811818572</v>
       </c>
       <c r="G12" t="n">
         <v>0.0066225165562914245</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c s="1" r="A13" t="s">
-        <v>165</v>
+      <c r="A13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="C13" t="n">
         <v>-0.3100000000000005</v>
       </c>
       <c r="D13" t="n">
-        <v>0.72999999999999954</v>
+        <v>0.7299999999999995</v>
       </c>
       <c r="E13" t="n">
-        <v>0.022279011860297571</v>
+        <v>0.022290596052502387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.096340593375533468</v>
+        <v>0.09634065444764506</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0032894736842106198</v>
+        <v>0.00328947368421062</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c s="1" r="A14" t="s">
-        <v>145</v>
+      <c r="A14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24000000000000021</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="D14" t="n">
         <v>0.75</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0037818088584063991</v>
+        <v>-0.003810194672131062</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.025581935141587686</v>
+        <v>-0.025582474782219533</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0032786885245901232</v>
+        <v>0.003278688524590123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c s="1" r="A15" t="s">
-        <v>139</v>
+      <c r="A15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>5.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.69999999999999973</v>
+        <v>0.6999999999999997</v>
       </c>
       <c r="D15" t="n">
-        <v>0.80999999999999961</v>
+        <v>0.8099999999999996</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0024771586668381751</v>
+        <v>0.002506990646996332</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.017125210555867465</v>
+        <v>-0.017122807017543873</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c s="1" r="A16" t="s">
-        <v>47</v>
+      <c r="A16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>0.8100000000000005</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.012098456403838109</v>
+        <v>-0.01211888044628251</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.012775570616187615</v>
+        <v>-0.012773746316513734</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0065359477124182774</v>
+        <v>0.006535947712418277</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c s="1" r="A17" t="s">
-        <v>125</v>
+      <c r="A17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="C17" t="n">
         <v>1.0299999999999998</v>
       </c>
       <c r="D17" t="n">
-        <v>0.77999999999999936</v>
+        <v>0.7799999999999994</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0067892411642411776</v>
+        <v>0.00681530522831264</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.031764819344713535</v>
+        <v>-0.031764607906305975</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c s="1" r="A18" t="s">
-        <v>119</v>
+      <c r="A18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>7.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.89999999999999991</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>0.018584841738457092</v>
+        <v>0.018566869741804437</v>
       </c>
       <c r="F18" t="n">
-        <v>0.025517503667348951</v>
+        <v>0.0255138071525578</v>
       </c>
       <c r="G18" t="n">
         <v>0.0032467532467532756</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c s="1" r="A19" t="s">
-        <v>202</v>
+      <c r="A19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>7.0</v>
@@ -1507,205 +1528,205 @@
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.67999999999999972</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="E19" t="n">
-        <v>0.016693591814754827</v>
+        <v>0.016677742966549447</v>
       </c>
       <c r="F19" t="n">
-        <v>0.041469466322890502</v>
+        <v>0.04146802274252215</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0032362459546926292</v>
+        <v>0.003236245954692629</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c s="1" r="A20" t="s">
-        <v>166</v>
+      <c r="A20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>6.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.87000000000000011</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.70999999999999996</v>
+        <v>0.71</v>
       </c>
       <c r="E20" t="n">
-        <v>0.020251744765702906</v>
+        <v>0.02026396065492131</v>
       </c>
       <c r="F20" t="n">
-        <v>0.027300050445745239</v>
+        <v>0.027304709023863172</v>
       </c>
       <c r="G20" t="n">
         <v>0.003225806451612856</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c s="1" r="A21" t="s">
-        <v>69</v>
+      <c r="A21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C21" t="n">
-        <v>0.80000000000000027</v>
+        <v>0.8000000000000003</v>
       </c>
       <c r="D21" t="n">
-        <v>0.66000000000000014</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.018017467782324603</v>
+        <v>0.018030936327302793</v>
       </c>
       <c r="F21" t="n">
-        <v>0.015507330700635924</v>
+        <v>0.015505091347185251</v>
       </c>
       <c r="G21" t="n">
         <v>0.003215434083601254</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c s="1" r="A22" t="s">
-        <v>28</v>
+      <c r="A22" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C22" t="n">
-        <v>0.84999999999999964</v>
+        <v>0.8499999999999996</v>
       </c>
       <c r="D22" t="n">
         <v>0.6899999999999995</v>
       </c>
       <c r="E22" t="n">
-        <v>0.010769138468922579</v>
+        <v>0.010758810836729582</v>
       </c>
       <c r="F22" t="n">
-        <v>0.023990735285154052</v>
+        <v>0.023991386665583203</v>
       </c>
       <c r="G22" t="n">
         <v>0.0032051282051281937</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c s="1" r="A23" t="s">
-        <v>128</v>
+      <c r="A23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.71999999999999975</v>
+        <v>0.7199999999999998</v>
       </c>
       <c r="D23" t="n">
-        <v>0.70999999999999996</v>
+        <v>0.71</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0095266359994063965</v>
+        <v>0.009517597177335801</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0063889142417232758</v>
+        <v>0.006388001666435272</v>
       </c>
       <c r="G23" t="n">
         <v>0.0031948881789136685</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c s="1" r="A24" t="s">
-        <v>34</v>
+      <c r="A24" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="C24" t="n">
-        <v>0.95000000000000018</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.70999999999999996</v>
+        <v>0.71</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0038805268109125546</v>
+        <v>0.0038768796992481036</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0084657878860765479</v>
+        <v>0.008468528849376211</v>
       </c>
       <c r="G24" t="n">
         <v>0.0031847133757962887</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c s="1" r="A25" t="s">
-        <v>94</v>
+      <c r="A25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C25" t="n">
-        <v>0.79000000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="D25" t="n">
-        <v>0.70000000000000018</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E25" t="n">
-        <v>0.011128030924212329</v>
+        <v>0.011146869514335744</v>
       </c>
       <c r="F25" t="n">
-        <v>0.011542251208182641</v>
+        <v>0.011540581642187187</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c s="1" r="A26" t="s">
-        <v>127</v>
+      <c r="A26" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C26" t="n">
-        <v>0.86000000000000032</v>
+        <v>0.8600000000000003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.66000000000000014</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.013032900834105687</v>
+        <v>0.013020456584010853</v>
       </c>
       <c r="F26" t="n">
-        <v>0.026972494085996557</v>
+        <v>0.02697250188409428</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0063492063492063266</v>
+        <v>0.006349206349206327</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c s="1" r="A27" t="s">
-        <v>73</v>
+      <c r="A27" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C27" t="n">
-        <v>0.53999999999999959</v>
+        <v>0.5399999999999996</v>
       </c>
       <c r="D27" t="n">
-        <v>0.58000000000000007</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.019526559551718226</v>
+        <v>0.01953671703178994</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01111086018834273</v>
+        <v>0.011109271273953558</v>
       </c>
       <c r="G27" t="n">
         <v>0.003154574132492094</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c s="1" r="A28" t="s">
-        <v>121</v>
+      <c r="A28" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>5.5</v>
@@ -1714,162 +1735,162 @@
         <v>0.4700000000000002</v>
       </c>
       <c r="D28" t="n">
-        <v>0.50999999999999979</v>
+        <v>0.5099999999999998</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0071226269594235614</v>
+        <v>0.0071438576831488465</v>
       </c>
       <c r="F28" t="n">
-        <v>0.018980933449474602</v>
+        <v>0.018981970849647922</v>
       </c>
       <c r="G28" t="n">
         <v>0.0062893081761006275</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c s="1" r="A29" t="s">
-        <v>153</v>
+      <c r="A29" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C29" t="n">
-        <v>0.37999999999999989</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.44000000000000039</v>
+        <v>0.4400000000000004</v>
       </c>
       <c r="E29" t="n">
-        <v>0.021634414590004036</v>
+        <v>0.021613351877607823</v>
       </c>
       <c r="F29" t="n">
-        <v>0.011763115691338699</v>
+        <v>0.01176509263047154</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0062500000000000888</v>
+        <v>0.006250000000000089</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c s="1" r="A30" t="s">
-        <v>136</v>
+      <c r="A30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="C30" t="n">
-        <v>0.32000000000000028</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="D30" t="n">
-        <v>0.44999999999999929</v>
+        <v>0.4499999999999993</v>
       </c>
       <c r="E30" t="n">
-        <v>0.011909953123296679</v>
+        <v>0.011898603207449732</v>
       </c>
       <c r="F30" t="n">
-        <v>0.023256317767740287</v>
+        <v>0.023256569565735408</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c s="1" r="A31" t="s">
-        <v>122</v>
+      <c r="A31" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C31" t="n">
         <v>0.4700000000000002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.42999999999999972</v>
+        <v>0.4299999999999997</v>
       </c>
       <c r="E31" t="n">
-        <v>0.013574295025451821</v>
+        <v>0.013588418900010835</v>
       </c>
       <c r="F31" t="n">
-        <v>0.015151835933916225</v>
+        <v>0.015149644191519096</v>
       </c>
       <c r="G31" t="n">
         <v>0.0031055900621115295</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c s="1" r="A32" t="s">
-        <v>170</v>
+      <c r="A32" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.33000000000000052</v>
+        <v>0.3300000000000005</v>
       </c>
       <c r="D32" t="n">
-        <v>0.38999999999999968</v>
+        <v>0.3899999999999997</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0035341322775224171</v>
+        <v>0.0035307547320075905</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0037331590728975073</v>
+        <v>-0.0037326271230619934</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0030959752321981782</v>
+        <v>0.003095975232198178</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c s="1" r="A33" t="s">
-        <v>80</v>
+      <c r="A33" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C33" t="n">
         <v>0.25000000000000044</v>
       </c>
       <c r="D33" t="n">
-        <v>0.37000000000000011</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02467828205264011</v>
+        <v>0.02468123379715359</v>
       </c>
       <c r="F33" t="n">
-        <v>0.054309219937338282</v>
+        <v>0.05430842917891976</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0061728395061728669</v>
+        <v>0.006172839506172867</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c s="1" r="A34" t="s">
-        <v>64</v>
+      <c r="A34" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="C34" t="n">
         <v>0.16000000000000014</v>
       </c>
       <c r="D34" t="n">
-        <v>0.37000000000000011</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.013669957103726205</v>
+        <v>0.013656899444946413</v>
       </c>
       <c r="F34" t="n">
-        <v>0.023978767902999465</v>
+        <v>0.023978665043162817</v>
       </c>
       <c r="G34" t="n">
         <v>0.0030674846625766694</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c s="1" r="A35" t="s">
-        <v>27</v>
+      <c r="A35" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C35" t="n">
         <v>0.2200000000000002</v>
@@ -1878,202 +1899,202 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="E35" t="n">
-        <v>0.020317638361332824</v>
+        <v>0.020323960880195502</v>
       </c>
       <c r="F35" t="n">
-        <v>0.025149468377339002</v>
+        <v>0.025152355286712336</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c s="1" r="A36" t="s">
-        <v>133</v>
+      <c r="A36" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.049999999999999822</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="D36" t="n">
-        <v>0.37000000000000011</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.023560863481910888</v>
+        <v>0.023563476611252687</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01692243673001026</v>
+        <v>0.016919983105232905</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0030581039755350758</v>
+        <v>0.003058103975535076</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c s="1" r="A37" t="s">
-        <v>135</v>
+      <c r="A37" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>4.0</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.26999999999999957</v>
+        <v>-0.2699999999999996</v>
       </c>
       <c r="D37" t="n">
         <v>0.3199999999999994</v>
       </c>
       <c r="E37" t="n">
-        <v>0.024702809578441176</v>
+        <v>0.024703701897283104</v>
       </c>
       <c r="F37" t="n">
-        <v>0.026622853245706235</v>
+        <v>0.02662215692473624</v>
       </c>
       <c r="G37" t="n">
         <v>0.0060975609756097615</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c s="1" r="A38" t="s">
-        <v>187</v>
+      <c r="A38" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="C38" t="n">
         <v>-0.15000000000000036</v>
       </c>
       <c r="D38" t="n">
-        <v>0.45000000000000018</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0040972867386075418</v>
+        <v>0.0040933863252339275</v>
       </c>
       <c r="F38" t="n">
-        <v>0.021880133346217079</v>
+        <v>0.02188004770315377</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0090909090909090384</v>
+        <v>0.009090909090909038</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c s="1" r="A39" t="s">
-        <v>208</v>
+      <c r="A39" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="C39" t="n">
         <v>-0.15000000000000036</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51999999999999957</v>
+        <v>0.5199999999999996</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0071409930962491597</v>
+        <v>0.007134222938541157</v>
       </c>
       <c r="F39" t="n">
-        <v>0.019824829942023836</v>
+        <v>0.019824972965945875</v>
       </c>
       <c r="G39" t="n">
         <v>0.009009009009009139</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c s="1" r="A40" t="s">
-        <v>90</v>
+      <c r="A40" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.57000000000000028</v>
+        <v>-0.5700000000000003</v>
       </c>
       <c r="D40" t="n">
         <v>0.6899999999999995</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0085743898991803569</v>
+        <v>0.008566318365810233</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0171069444806633</v>
+        <v>0.017107413115780012</v>
       </c>
       <c r="G40" t="n">
         <v>0.011904761904761862</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c s="1" r="A41" t="s">
-        <v>214</v>
+      <c r="A41" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="C41" t="n">
         <v>-0.16999999999999993</v>
       </c>
       <c r="D41" t="n">
-        <v>0.76999999999999957</v>
+        <v>0.7699999999999996</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0091788116591926538</v>
+        <v>0.009170244539854266</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00010825378104817318</v>
+        <v>0.000108238363663693</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0058823529411764497</v>
+        <v>0.00588235294117645</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c s="1" r="A42" t="s">
-        <v>206</v>
+      <c r="A42" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="C42" t="n">
         <v>0.47999999999999954</v>
       </c>
       <c r="D42" t="n">
-        <v>0.71999999999999975</v>
+        <v>0.7199999999999998</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00087944641162729376</v>
+        <v>0.0008786330319776603</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0076424593736201807</v>
+        <v>-0.007641371060763458</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0058479532163742132</v>
+        <v>0.005847953216374213</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c s="1" r="A43" t="s">
-        <v>154</v>
+      <c r="A43" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="C43" t="n">
         <v>0.15000000000000036</v>
       </c>
       <c r="D43" t="n">
-        <v>0.67999999999999972</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="E43" t="n">
-        <v>0.008624875713922453</v>
+        <v>0.00864000739251991</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.011105625434149835</v>
+        <v>-0.011106901777104272</v>
       </c>
       <c r="G43" t="n">
         <v>0.008720930232558155</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c s="1" r="A44" t="s">
-        <v>129</v>
+      <c r="A44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>4.0</v>
@@ -2082,323 +2103,323 @@
         <v>0.11000000000000032</v>
       </c>
       <c r="D44" t="n">
-        <v>0.69999999999999929</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0080467675378268488</v>
+        <v>0.008039211195345786</v>
       </c>
       <c r="F44" t="n">
-        <v>0.025790028242765661</v>
+        <v>0.02579216512557969</v>
       </c>
       <c r="G44" t="n">
         <v>0.011527377521613813</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c s="1" r="A45" t="s">
-        <v>33</v>
+      <c r="A45" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="C45" t="n">
         <v>0.10000000000000053</v>
       </c>
       <c r="D45" t="n">
-        <v>0.66999999999999993</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.020308839917217991</v>
+        <v>0.020312642006725667</v>
       </c>
       <c r="F45" t="n">
-        <v>0.024122943536749153</v>
+        <v>0.024122292042133342</v>
       </c>
       <c r="G45" t="n">
         <v>0.01139601139601143</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c s="1" r="A46" t="s">
-        <v>104</v>
+      <c r="A46" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>3.5</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.070000000000000284</v>
+        <v>-0.07000000000000028</v>
       </c>
       <c r="D46" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="E46" t="n">
-        <v>0.016895506419400963</v>
+        <v>0.016879704271143936</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0081730091759848467</v>
+        <v>0.00817459769321105</v>
       </c>
       <c r="G46" t="n">
         <v>0.011267605633802802</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c s="1" r="A47" t="s">
-        <v>81</v>
+      <c r="A47" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="C47" t="n">
         <v>-0.15000000000000036</v>
       </c>
       <c r="D47" t="n">
-        <v>0.74000000000000021</v>
+        <v>0.7400000000000002</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0071895138310464901</v>
+        <v>0.007204800280308454</v>
       </c>
       <c r="F47" t="n">
-        <v>0.013376963996480917</v>
+        <v>0.013375021236716744</v>
       </c>
       <c r="G47" t="n">
         <v>0.013927576601671321</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c s="1" r="A48" t="s">
-        <v>212</v>
+      <c r="A48" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0099999999999997868</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="D48" t="n">
         <v>0.75</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0044396082698585637</v>
+        <v>0.004457200008696871</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0085866043563158634</v>
+        <v>0.008585373767965088</v>
       </c>
       <c r="G48" t="n">
         <v>0.013736263736263687</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c s="1" r="A49" t="s">
-        <v>144</v>
+      <c r="A49" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.29999999999999982</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="D49" t="n">
-        <v>0.73000000000000043</v>
+        <v>0.7300000000000004</v>
       </c>
       <c r="E49" t="n">
-        <v>0.015534948216839428</v>
+        <v>0.015541798346248692</v>
       </c>
       <c r="F49" t="n">
-        <v>0.022279902503639981</v>
+        <v>0.02228209871578324</v>
       </c>
       <c r="G49" t="n">
         <v>0.01084010840108407</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c s="1" r="A50" t="s">
-        <v>93</v>
+      <c r="A50" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.089999999999999858</v>
+        <v>-0.08999999999999986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.65000000000000036</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0032002730899702847</v>
+        <v>0.003218518202745324</v>
       </c>
       <c r="F50" t="n">
-        <v>0.010560110794604949</v>
+        <v>0.010558587572547573</v>
       </c>
       <c r="G50" t="n">
-        <v>0.021447721179624679</v>
+        <v>0.02144772117962468</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c s="1" r="A51" t="s">
-        <v>99</v>
+      <c r="A51" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>3.5</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.87999999999999989</v>
+        <v>-0.8799999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0062525254673442276</v>
+        <v>0.00624641468544862</v>
       </c>
       <c r="F51" t="n">
-        <v>0.011264768786727331</v>
+        <v>0.011263160899703584</v>
       </c>
       <c r="G51" t="n">
         <v>0.01049868766404205</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c s="1" r="A52" t="s">
-        <v>171</v>
+      <c r="A52" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.54000000000000004</v>
+        <v>-0.54</v>
       </c>
       <c r="D52" t="n">
-        <v>0.89000000000000057</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0043326640600231947</v>
+        <v>-0.004349570321572682</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0023664568853116741</v>
+        <v>0.0023661228690137204</v>
       </c>
       <c r="G52" t="n">
         <v>0.01558441558441559</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c s="1" r="A53" t="s">
-        <v>124</v>
+      <c r="A53" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.30999999999999961</v>
+        <v>-0.3099999999999996</v>
       </c>
       <c r="D53" t="n">
-        <v>0.94999999999999929</v>
+        <v>0.9499999999999993</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0017406070897898474</v>
+        <v>-0.0017813593468348765</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.030378917072521383</v>
+        <v>-0.030377199562711787</v>
       </c>
       <c r="G53" t="n">
-        <v>0.012787723785166349</v>
+        <v>0.01278772378516635</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c s="1" r="A54" t="s">
-        <v>157</v>
+      <c r="A54" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C54" t="n">
         <v>0.33000000000000007</v>
       </c>
       <c r="D54" t="n">
-        <v>0.86999999999999922</v>
+        <v>0.8699999999999992</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0017649060134388161</v>
+        <v>0.0017632937477425337</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.0045237277840862733</v>
+        <v>-0.004523082772678877</v>
       </c>
       <c r="G54" t="n">
         <v>0.02020202020202011</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c s="1" r="A55" t="s">
-        <v>106</v>
+      <c r="A55" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>5.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.36000000000000032</v>
+        <v>0.3600000000000003</v>
       </c>
       <c r="D55" t="n">
-        <v>0.96000000000000085</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0088514359703677492</v>
+        <v>0.00886457140433472</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.0019524773382639804</v>
+        <v>-0.0019521976812347797</v>
       </c>
       <c r="G55" t="n">
         <v>0.012376237623762387</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c s="1" r="A56" t="s">
-        <v>151</v>
+      <c r="A56" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>5.5</v>
       </c>
       <c r="C56" t="n">
-        <v>0.90000000000000036</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="D56" t="n">
         <v>1.3000000000000007</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.010288671940750782</v>
+        <v>-0.010279155805936191</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.02849389055900664</v>
+        <v>-0.028495116603547865</v>
       </c>
       <c r="G56" t="n">
         <v>0.014669926650366705</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c s="1" r="A57" t="s">
-        <v>101</v>
+      <c r="A57" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="C57" t="n">
-        <v>1.6699999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="D57" t="n">
-        <v>1.3799999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="E57" t="n">
-        <v>0.026786283722017856</v>
+        <v>0.026761251407089626</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02459090399205488</v>
+        <v>0.024592877093061682</v>
       </c>
       <c r="G57" t="n">
         <v>0.014457831325301207</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c s="1" r="A58" t="s">
-        <v>57</v>
+      <c r="A58" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="C58" t="n">
         <v>1.5300000000000002</v>
@@ -2407,44 +2428,44 @@
         <v>1.1999999999999993</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0056936996625189806</v>
+        <v>0.005709202986988737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0026115586839665639</v>
+        <v>0.0026111821606598085</v>
       </c>
       <c r="G58" t="n">
         <v>0.0071258907363420665</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c s="1" r="A59" t="s">
-        <v>158</v>
+      <c r="A59" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>6.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.69000000000000039</v>
+        <v>0.6900000000000004</v>
       </c>
       <c r="D59" t="n">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="E59" t="n">
-        <v>0.007802528101453543</v>
+        <v>0.007836442543038835</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0063600795808951283</v>
+        <v>0.006359165000093148</v>
       </c>
       <c r="G59" t="n">
         <v>0.011792452830188704</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c s="1" r="A60" t="s">
-        <v>180</v>
+      <c r="A60" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C60" t="n">
         <v>1.0199999999999996</v>
@@ -2453,67 +2474,67 @@
         <v>1.0900000000000007</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0029007415275876802</v>
+        <v>0.002918367346938844</v>
       </c>
       <c r="F60" t="n">
-        <v>0.017916925804872141</v>
+        <v>0.01791701176738325</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0046620046620047262</v>
+        <v>0.004662004662004726</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c s="1" r="A61" t="s">
-        <v>156</v>
+      <c r="A61" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C61" t="n">
-        <v>1.6699999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="D61" t="n">
         <v>1.04</v>
       </c>
       <c r="E61" t="n">
-        <v>0.017822588858335875</v>
+        <v>0.017927273467228222</v>
       </c>
       <c r="F61" t="n">
-        <v>0.040278193045173882</v>
+        <v>0.04023344078194868</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0092807424593968069</v>
+        <v>0.009280742459396807</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c s="1" r="A62" t="s">
-        <v>198</v>
+      <c r="A62" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C62" t="n">
         <v>1.2300000000000004</v>
       </c>
       <c r="D62" t="n">
-        <v>0.94000000000000039</v>
+        <v>0.9400000000000004</v>
       </c>
       <c r="E62" t="n">
-        <v>0.023153892335401105</v>
+        <v>0.023168878938109927</v>
       </c>
       <c r="F62" t="n">
-        <v>0.027501955677964318</v>
+        <v>0.027506703618829453</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0068965517241379448</v>
+        <v>0.006896551724137945</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c s="1" r="A63" t="s">
-        <v>226</v>
+      <c r="A63" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C63" t="n">
         <v>1.1500000000000004</v>
@@ -2522,64 +2543,64 @@
         <v>1.0200000000000005</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0092123535509613941</v>
+        <v>0.009202274192603</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0017902272080481119</v>
+        <v>0.00173896547363106</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0068493150684931781</v>
+        <v>0.006849315068493178</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c s="1" r="A64" t="s">
-        <v>195</v>
+      <c r="A64" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C64" t="n">
-        <v>0.96000000000000085</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="D64" t="n">
-        <v>0.85000000000000053</v>
+        <v>0.8500000000000005</v>
       </c>
       <c r="E64" t="n">
-        <v>0.016609170898096881</v>
+        <v>0.01661052387036821</v>
       </c>
       <c r="F64" t="n">
-        <v>0.034669800440444209</v>
+        <v>0.03506369589126912</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0068027210884353817</v>
+        <v>0.006802721088435382</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c s="1" r="A65" t="s">
-        <v>230</v>
+      <c r="A65" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C65" t="n">
-        <v>0.57000000000000028</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="D65" t="n">
         <v>0.75</v>
       </c>
       <c r="E65" t="n">
-        <v>0.024630635783052135</v>
+        <v>0.024622943327239577</v>
       </c>
       <c r="F65" t="n">
-        <v>0.030344772560872757</v>
+        <v>0.029742846352865504</v>
       </c>
       <c r="G65" t="n">
         <v>0.0045045045045044585</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c s="1" r="A66" t="s">
-        <v>192</v>
+      <c r="A66" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>5.0</v>
@@ -2588,113 +2609,113 @@
         <v>-0.17999999999999972</v>
       </c>
       <c r="D66" t="n">
-        <v>0.83000000000000007</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.011330864978510435</v>
+        <v>0.011337236316327548</v>
       </c>
       <c r="F66" t="n">
-        <v>0.013622066791628695</v>
+        <v>0.013899740547288042</v>
       </c>
       <c r="G66" t="n">
         <v>0.011210762331838486</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c s="1" r="A67" t="s">
-        <v>169</v>
+      <c r="A67" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="C67" t="n">
         <v>-1.2600000000000007</v>
       </c>
       <c r="D67" t="n">
-        <v>0.79000000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.0054271837515638133</v>
+        <v>-0.0054396765597721775</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01124373101328402</v>
+        <v>0.011361415222993276</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0088691796008868451</v>
+        <v>0.008869179600886845</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c s="1" r="A68" t="s">
-        <v>78</v>
+      <c r="A68" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.61000000000000032</v>
+        <v>-0.6100000000000003</v>
       </c>
       <c r="D68" t="n">
         <v>0.8100000000000005</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0093228020199402906</v>
+        <v>0.009331288456918996</v>
       </c>
       <c r="F68" t="n">
-        <v>0.014211691093473533</v>
+        <v>0.014223831526568365</v>
       </c>
       <c r="G68" t="n">
         <v>0.01758241758241752</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c s="1" r="A69" t="s">
-        <v>6</v>
+      <c r="A69" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.42999999999999972</v>
+        <v>-0.4299999999999997</v>
       </c>
       <c r="D69" t="n">
-        <v>0.65000000000000036</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.0083020251076697527</v>
+        <v>-0.008311364967779622</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.0047497195737520315</v>
+        <v>-0.004704717640281908</v>
       </c>
       <c r="G69" t="n">
         <v>0.012958963282937441</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c s="1" r="A70" t="s">
-        <v>199</v>
+      <c r="A70" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C70" t="n">
         <v>-1.1099999999999994</v>
       </c>
       <c r="D70" t="n">
-        <v>0.61999999999999922</v>
+        <v>0.6199999999999992</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0026241868716734285</v>
+        <v>0.0026398375484586456</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.005542837016817681</v>
+        <v>-0.0056226136901290635</v>
       </c>
       <c r="G70" t="n">
         <v>0.021321961620469176</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c s="1" r="A71" t="s">
-        <v>9</v>
+      <c r="A71" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>5.5</v>
@@ -2703,21 +2724,21 @@
         <v>-0.9900000000000011</v>
       </c>
       <c r="D71" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.0096951376857005167</v>
+        <v>-0.009684605895457832</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0063617568542728709</v>
+        <v>0.006302837161952679</v>
       </c>
       <c r="G71" t="n">
-        <v>0.033402922755741082</v>
+        <v>0.03340292275574108</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c s="1" r="A72" t="s">
-        <v>66</v>
+      <c r="A72" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>6.0</v>
@@ -2729,90 +2750,90 @@
         <v>1.2100000000000009</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.0039830256104825823</v>
+        <v>-0.003997248405748555</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.012387932323881135</v>
+        <v>-0.01262128662790174</v>
       </c>
       <c r="G72" t="n">
-        <v>0.034343434343434343</v>
+        <v>0.03434343434343434</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c s="1" r="A73" t="s">
-        <v>162</v>
+      <c r="A73" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.66999999999999993</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="D73" t="n">
         <v>1.9800000000000004</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.012090294128639156</v>
+        <v>-0.0120958709773763</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.079576128497741649</v>
+        <v>-0.07986742959981641</v>
       </c>
       <c r="G73" t="n">
         <v>0.021484374999999778</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c s="1" r="A74" t="s">
-        <v>216</v>
+      <c r="A74" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="C74" t="n">
-        <v>1.3300000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="D74" t="n">
         <v>1.6300000000000008</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0076985643217886146</v>
+        <v>0.007709167863351185</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.032849876837158787</v>
+        <v>-0.03216084781087891</v>
       </c>
       <c r="G74" t="n">
         <v>0.019120458891013437</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c s="1" r="A75" t="s">
-        <v>2</v>
+      <c r="A75" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="C75" t="n">
-        <v>0.95000000000000018</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="D75" t="n">
         <v>1.7100000000000009</v>
       </c>
       <c r="E75" t="n">
-        <v>0.016537147576679123</v>
+        <v>0.01653791344783606</v>
       </c>
       <c r="F75" t="n">
-        <v>0.015536730231324736</v>
+        <v>0.015216657287563162</v>
       </c>
       <c r="G75" t="n">
         <v>0.013133208255159623</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c s="1" r="A76" t="s">
-        <v>120</v>
+      <c r="A76" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="C76" t="n">
         <v>1.1900000000000004</v>
@@ -2821,21 +2842,21 @@
         <v>1.7599999999999998</v>
       </c>
       <c r="E76" t="n">
-        <v>0.013479826424152908</v>
+        <v>0.013465156601615735</v>
       </c>
       <c r="F76" t="n">
-        <v>0.025353035663253642</v>
+        <v>0.02589003939306611</v>
       </c>
       <c r="G76" t="n">
         <v>0.014814814814814836</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c s="1" r="A77" t="s">
-        <v>77</v>
+      <c r="A77" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="C77" t="n">
         <v>1.9300000000000006</v>
@@ -2844,21 +2865,21 @@
         <v>1.8100000000000005</v>
       </c>
       <c r="E77" t="n">
-        <v>0.022574473899972691</v>
+        <v>0.02258663366336644</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03008416646844414</v>
+        <v>0.02985461723556604</v>
       </c>
       <c r="G77" t="n">
         <v>0.02007299270072993</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c s="1" r="A78" t="s">
-        <v>1</v>
+      <c r="A78" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="C78" t="n">
         <v>1.6399999999999997</v>
@@ -2867,90 +2888,90 @@
         <v>1.5399999999999991</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0075547003064644347</v>
+        <v>0.0075642965204236745</v>
       </c>
       <c r="F78" t="n">
-        <v>0.016558593021085866</v>
+        <v>0.01638801445726945</v>
       </c>
       <c r="G78" t="n">
         <v>0.014311270125223707</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c s="1" r="A79" t="s">
-        <v>209</v>
+      <c r="A79" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="C79" t="n">
-        <v>1.6299999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="D79" t="n">
         <v>1.2599999999999998</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0050930183207187341</v>
+        <v>0.0050874403815579505</v>
       </c>
       <c r="F79" t="n">
-        <v>0.010513538877378048</v>
+        <v>0.010427229637650859</v>
       </c>
       <c r="G79" t="n">
         <v>0.015873015873015817</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c s="1" r="A80" t="s">
-        <v>161</v>
+      <c r="A80" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="C80" t="n">
         <v>1.9100000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.96999999999999886</v>
+        <v>0.9699999999999989</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0074952494897599919</v>
+        <v>0.007504657457204189</v>
       </c>
       <c r="F80" t="n">
-        <v>0.010306516106911578</v>
+        <v>0.010221991131253327</v>
       </c>
       <c r="G80" t="n">
         <v>0.015625</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c s="1" r="A81" t="s">
-        <v>184</v>
+      <c r="A81" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>7.5</v>
       </c>
       <c r="C81" t="n">
-        <v>1.9199999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="E81" t="n">
-        <v>0.011648213474904745</v>
+        <v>0.011635412123855104</v>
       </c>
       <c r="F81" t="n">
-        <v>0.019380141142625984</v>
+        <v>0.019601056357813285</v>
       </c>
       <c r="G81" t="n">
         <v>0.013675213675213627</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c s="1" r="A82" t="s">
-        <v>164</v>
+      <c r="A82" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="C82" t="n">
         <v>1.9299999999999997</v>
@@ -2959,340 +2980,340 @@
         <v>1.0300000000000011</v>
       </c>
       <c r="E82" t="n">
-        <v>0.019627475012515383</v>
+        <v>0.019623396330528342</v>
       </c>
       <c r="F82" t="n">
-        <v>0.037282582573975542</v>
+        <v>0.037169951900821285</v>
       </c>
       <c r="G82" t="n">
-        <v>0.016863406408094361</v>
+        <v>0.01686340640809436</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c s="1" r="A83" t="s">
-        <v>152</v>
+      <c r="A83" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="C83" t="n">
         <v>1.3899999999999997</v>
       </c>
       <c r="D83" t="n">
-        <v>0.92999999999999883</v>
+        <v>0.9299999999999988</v>
       </c>
       <c r="E83" t="n">
-        <v>0.017692073273964715</v>
+        <v>0.017689835954676214</v>
       </c>
       <c r="F83" t="n">
-        <v>0.017452648717354746</v>
+        <v>0.01767026277980377</v>
       </c>
       <c r="G83" t="n">
         <v>0.014925373134328401</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c s="1" r="A84" t="s">
-        <v>201</v>
+      <c r="A84" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="C84" t="n">
-        <v>0.54999999999999982</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="D84" t="n">
-        <v>0.85000000000000142</v>
+        <v>0.8500000000000014</v>
       </c>
       <c r="E84" t="n">
-        <v>9.9815341617848219e-05</v>
+        <v>9.970752459453891e-05</v>
       </c>
       <c r="F84" t="n">
-        <v>0.007953054624762812</v>
+        <v>0.0072782787758289835</v>
       </c>
       <c r="G84" t="n">
         <v>0.013071895424836555</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c s="1" r="A85" t="s">
-        <v>35</v>
+      <c r="A85" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C85" t="n">
-        <v>0.67999999999999972</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="D85" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0034765540529302363</v>
+        <v>0.0034894154398326105</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.011979498063176219</v>
+        <v>-0.011583908174668922</v>
       </c>
       <c r="G85" t="n">
-        <v>0.017741935483871041</v>
+        <v>0.01774193548387104</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c s="1" r="A86" t="s">
-        <v>142</v>
+      <c r="A86" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="C86" t="n">
-        <v>0.70000000000000018</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="D86" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="E86" t="n">
-        <v>0.038888704704439059</v>
+        <v>0.03887932176447206</v>
       </c>
       <c r="F86" t="n">
-        <v>0.044857366412774047</v>
+        <v>0.04546274542708528</v>
       </c>
       <c r="G86" t="n">
         <v>0.019017432646592614</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c s="1" r="A87" t="s">
-        <v>16</v>
+      <c r="A87" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="C87" t="n">
         <v>0.25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.71999999999999886</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0097810824610671254</v>
+        <v>0.009770481351609739</v>
       </c>
       <c r="F87" t="n">
-        <v>0.010275148315080473</v>
+        <v>0.009990108207779791</v>
       </c>
       <c r="G87" t="n">
         <v>0.020217729393467998</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c s="1" r="A88" t="s">
-        <v>17</v>
+      <c r="A88" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C88" t="n">
         <v>-0.5</v>
       </c>
       <c r="D88" t="n">
-        <v>0.69999999999999929</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="E88" t="n">
-        <v>0.013399699770877849</v>
+        <v>0.013416886335295919</v>
       </c>
       <c r="F88" t="n">
-        <v>0.014938008358289512</v>
+        <v>0.014613446914011785</v>
       </c>
       <c r="G88" t="n">
         <v>0.024390243902439046</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c s="1" r="A89" t="s">
-        <v>74</v>
+      <c r="A89" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="C89" t="n">
         <v>-1.3100000000000005</v>
       </c>
       <c r="D89" t="n">
-        <v>0.88000000000000078</v>
+        <v>0.8800000000000008</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0019958523692951147</v>
+        <v>0.001978100711804709</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0061010710159967729</v>
+        <v>0.006261650036810229</v>
       </c>
       <c r="G89" t="n">
         <v>0.019345238095238138</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c s="1" r="A90" t="s">
-        <v>204</v>
+      <c r="A90" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C90" t="n">
         <v>-0.9399999999999995</v>
       </c>
       <c r="D90" t="n">
-        <v>0.94999999999999929</v>
+        <v>0.9499999999999993</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0012137999719892267</v>
+        <v>0.0012124980568941623</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.001992814967908596</v>
+        <v>-0.0019088351241229873</v>
       </c>
       <c r="G90" t="n">
-        <v>0.026277372262773602</v>
+        <v>0.0262773722627736</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c s="1" r="A91" t="s">
-        <v>59</v>
+      <c r="A91" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.69000000000000128</v>
+        <v>-0.6900000000000013</v>
       </c>
       <c r="D91" t="n">
         <v>1.0899999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0071807146520774801</v>
+        <v>0.00718854800645885</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0060157325543754858</v>
+        <v>0.005965551862285423</v>
       </c>
       <c r="G91" t="n">
         <v>0.022759601706970223</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c s="1" r="A92" t="s">
-        <v>39</v>
+      <c r="A92" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>6.0</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.1399999999999988</v>
+        <v>-2.139999999999999</v>
       </c>
       <c r="D92" t="n">
         <v>1.2699999999999996</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002577120723445514</v>
+        <v>0.002589755052334608</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00018414171546421443</v>
+        <v>-0.00010658811445618532</v>
       </c>
       <c r="G92" t="n">
         <v>0.029207232267037364</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c s="1" r="A93" t="s">
-        <v>223</v>
+      <c r="A93" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="C93" t="n">
         <v>-1.2599999999999998</v>
       </c>
       <c r="D93" t="n">
-        <v>1.3300000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0032477527398102612</v>
+        <v>0.0032288319316102765</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0039941705652304371</v>
+        <v>0.004413218335109992</v>
       </c>
       <c r="G93" t="n">
-        <v>0.036486486486486447</v>
+        <v>0.03648648648648645</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c s="1" r="A94" t="s">
-        <v>48</v>
+      <c r="A94" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.8300000000000001</v>
+        <v>-1.83</v>
       </c>
       <c r="D94" t="n">
         <v>2.1500000000000004</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.020282606360944477</v>
+        <v>-0.0202761728149089</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.022435495296904029</v>
+        <v>-0.022796959633519576</v>
       </c>
       <c r="G94" t="n">
-        <v>0.036505867014341442</v>
+        <v>0.03650586701434144</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c s="1" r="A95" t="s">
-        <v>0</v>
+      <c r="A95" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="C95" t="n">
         <v>1.5999999999999996</v>
       </c>
       <c r="D95" t="n">
-        <v>1.5800000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.0015190190582081708</v>
+        <v>-0.0015173794700122922</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.042856014532817288</v>
+        <v>-0.04264108543817002</v>
       </c>
       <c r="G95" t="n">
-        <v>0.016352201257861632</v>
+        <v>0.01635220125786163</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c s="1" r="A96" t="s">
-        <v>188</v>
+      <c r="A96" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>7.5</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.74000000000000021</v>
+        <v>-0.7400000000000002</v>
       </c>
       <c r="D96" t="n">
-        <v>1.9199999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="E96" t="n">
-        <v>0.018522584692597377</v>
+        <v>0.01853389525137472</v>
       </c>
       <c r="F96" t="n">
-        <v>0.031817319118035536</v>
+        <v>0.03173142966756659</v>
       </c>
       <c r="G96" t="n">
         <v>0.027227722772277252</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c s="1" r="A97" t="s">
-        <v>113</v>
+      <c r="A97" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>7.5</v>
@@ -3301,116 +3322,116 @@
         <v>-1.5099999999999998</v>
       </c>
       <c r="D97" t="n">
-        <v>2.2199999999999989</v>
+        <v>2.219999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.020711107004819818</v>
+        <v>0.02068848827908698</v>
       </c>
       <c r="F97" t="n">
-        <v>0.017610399892834083</v>
+        <v>0.01775679074295833</v>
       </c>
       <c r="G97" t="n">
         <v>0.028915662650602414</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c s="1" r="A98" t="s">
-        <v>130</v>
+      <c r="A98" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.64000000000000057</v>
+        <v>-0.6400000000000006</v>
       </c>
       <c r="D98" t="n">
         <v>1.6799999999999997</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.0073016926651179315</v>
+        <v>-0.007293880072938741</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0037625229140593186</v>
+        <v>-0.004038618305390984</v>
       </c>
       <c r="G98" t="n">
         <v>0.0187353629976581</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c s="1" r="A99" t="s">
-        <v>168</v>
+      <c r="A99" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="C99" t="n">
         <v>-1.4400000000000013</v>
       </c>
       <c r="D99" t="n">
-        <v>1.7900000000000009</v>
+        <v>1.790000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>0.011473815385550701</v>
+        <v>0.011476629271476746</v>
       </c>
       <c r="F99" t="n">
-        <v>0.017136309490939805</v>
+        <v>0.01740531606673379</v>
       </c>
       <c r="G99" t="n">
-        <v>0.032183908045976928</v>
+        <v>0.03218390804597693</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c s="1" r="A100" t="s">
-        <v>200</v>
+      <c r="A100" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="C100" t="n">
         <v>-0.23000000000000043</v>
       </c>
       <c r="D100" t="n">
-        <v>1.7099999999999991</v>
+        <v>1.709999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.011674204065687976</v>
+        <v>-0.01167659727746162</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.013345846073901435</v>
+        <v>-0.013290582218999925</v>
       </c>
       <c r="G100" t="n">
         <v>0.025612472160356337</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c s="1" r="A101" t="s">
-        <v>108</v>
+      <c r="A101" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="C101" t="n">
-        <v>0.26999999999999957</v>
+        <v>0.2699999999999996</v>
       </c>
       <c r="D101" t="n">
         <v>1.9200000000000017</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.016722408026755842</v>
+        <v>-0.01671956386387452</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.041209924969244915</v>
+        <v>-0.041200554815539525</v>
       </c>
       <c r="G101" t="n">
         <v>0.013029315960912058</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c s="1" r="A102" t="s">
-        <v>40</v>
+      <c r="A102" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="C102" t="n">
         <v>-0.11000000000000121</v>
@@ -3419,41 +3440,41 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0054576376004946692</v>
+        <v>0.005436293436293482</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0032630439773062569</v>
+        <v>0.003010079360363127</v>
       </c>
       <c r="G102" t="n">
         <v>0.015005359056806</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c s="1" r="A103" t="s">
-        <v>149</v>
+      <c r="A103" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="C103" t="n">
-        <v>0.70999999999999908</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="D103" t="n">
         <v>2.1900000000000013</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.0036135500438239099</v>
+        <v>-0.00359435962028809</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.012633815477649746</v>
+        <v>-0.012612973344010903</v>
       </c>
       <c r="G103" t="n">
         <v>0.021119324181626098</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c s="1" r="A104" t="s">
-        <v>173</v>
+      <c r="A104" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>10.4</v>
@@ -3462,21 +3483,21 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>2.6100000000000012</v>
+        <v>2.610000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>0.00098768480508648615</v>
+        <v>0.0009712030585189435</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.020178110309210129</v>
+        <v>-0.02018943892477476</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0082730093071354815</v>
+        <v>0.008273009307135482</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c s="1" r="A105" t="s">
-        <v>84</v>
+      <c r="A105" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>10.4</v>
@@ -3488,44 +3509,44 @@
         <v>2.1500000000000004</v>
       </c>
       <c r="E105" t="n">
-        <v>0.013089328111991705</v>
+        <v>0.01310622044940013</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0077901947865457455</v>
+        <v>0.0076695019047055</v>
       </c>
       <c r="G105" t="n">
         <v>0.0010256410256410664</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c s="1" r="A106" t="s">
-        <v>31</v>
+      <c r="A106" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="C106" t="n">
-        <v>1.4199999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="D106" t="n">
         <v>1.7799999999999994</v>
       </c>
       <c r="E106" t="n">
-        <v>0.022827228317937598</v>
+        <v>0.022817792101182732</v>
       </c>
       <c r="F106" t="n">
-        <v>0.014466727992406225</v>
+        <v>0.014155609016001769</v>
       </c>
       <c r="G106" t="n">
         <v>0.010245901639344357</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c s="1" r="A107" t="s">
-        <v>38</v>
+      <c r="A107" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="C107" t="n">
         <v>1.1800000000000015</v>
@@ -3534,21 +3555,21 @@
         <v>1.2400000000000002</v>
       </c>
       <c r="E107" t="n">
-        <v>0.019580128252815632</v>
+        <v>0.019574038018518758</v>
       </c>
       <c r="F107" t="n">
-        <v>0.027700836746623381</v>
+        <v>0.028085487993619207</v>
       </c>
       <c r="G107" t="n">
         <v>0.012170385395537497</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c s="1" r="A108" t="s">
-        <v>111</v>
+      <c r="A108" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="C108" t="n">
         <v>1.7299999999999986</v>
@@ -3557,18 +3578,18 @@
         <v>1.2100000000000009</v>
       </c>
       <c r="E108" t="n">
-        <v>0.020619609788842475</v>
+        <v>0.020626822157434388</v>
       </c>
       <c r="F108" t="n">
-        <v>0.034585607820752928</v>
+        <v>0.03493768377808548</v>
       </c>
       <c r="G108" t="n">
         <v>0.012024048096192397</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c s="1" r="A109" t="s">
-        <v>45</v>
+      <c r="A109" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>8.0</v>
@@ -3577,24 +3598,24 @@
         <v>1.7699999999999996</v>
       </c>
       <c r="D109" t="n">
-        <v>1.4500000000000011</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.019859879897054622</v>
+        <v>0.019867171320431476</v>
       </c>
       <c r="F109" t="n">
-        <v>0.028625212722144022</v>
+        <v>0.028559443492851333</v>
       </c>
       <c r="G109" t="n">
         <v>0.014851485148514865</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c s="1" r="A110" t="s">
-        <v>228</v>
+      <c r="A110" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="C110" t="n">
         <v>1.7300000000000004</v>
@@ -3603,44 +3624,44 @@
         <v>1.5</v>
       </c>
       <c r="E110" t="n">
-        <v>0.017566487683831289</v>
+        <v>0.017561549449625957</v>
       </c>
       <c r="F110" t="n">
-        <v>0.015849183461097427</v>
+        <v>0.01596202646365774</v>
       </c>
       <c r="G110" t="n">
         <v>0.011707317073170742</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c s="1" r="A111" t="s">
-        <v>110</v>
+      <c r="A111" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>7.5</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3300000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="D111" t="n">
         <v>1.7100000000000009</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0098371497065388169</v>
+        <v>0.009840352325901414</v>
       </c>
       <c r="F111" t="n">
-        <v>0.011853879003426382</v>
+        <v>0.011509312637756786</v>
       </c>
       <c r="G111" t="n">
         <v>0.012536162005786</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c s="1" r="A112" t="s">
-        <v>114</v>
+      <c r="A112" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="C112" t="n">
         <v>1.2599999999999998</v>
@@ -3649,90 +3670,90 @@
         <v>1.3099999999999987</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0079813359528486671</v>
+        <v>0.007972742759795537</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.0021809469388655023</v>
+        <v>-0.0022396601742856737</v>
       </c>
       <c r="G112" t="n">
         <v>0.011428571428571566</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c s="1" r="A113" t="s">
-        <v>211</v>
+      <c r="A113" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="C113" t="n">
-        <v>2.3600000000000012</v>
+        <v>2.360000000000001</v>
       </c>
       <c r="D113" t="n">
         <v>1.1799999999999997</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0099348953046114463</v>
+        <v>0.009937804218496549</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0024103617936479527</v>
+        <v>0.002414097889736011</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0084745762711864181</v>
+        <v>0.008474576271186418</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c s="1" r="A114" t="s">
-        <v>53</v>
+      <c r="A114" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="C114" t="n">
-        <v>2.2899999999999991</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="D114" t="n">
         <v>1.2799999999999994</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0091670575621523032</v>
+        <v>0.00915723944039093</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0030438240864394395</v>
+        <v>0.003069597755942066</v>
       </c>
       <c r="G114" t="n">
         <v>0.012138188608777023</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c s="1" r="A115" t="s">
-        <v>190</v>
+      <c r="A115" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="C115" t="n">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="D115" t="n">
-        <v>1.4599999999999991</v>
+        <v>1.459999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.015551335343098938</v>
+        <v>0.015561363244404935</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.0049776755463905031</v>
+        <v>-0.00485676925950751</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0092250922509224953</v>
+        <v>0.009225092250922495</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c s="1" r="A116" t="s">
-        <v>20</v>
+      <c r="A116" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="C116" t="n">
         <v>2.2300000000000004</v>
@@ -3741,64 +3762,64 @@
         <v>1.3399999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0075062115862429835</v>
+        <v>0.007498171177761526</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0046307884856069403</v>
+        <v>0.004648594931816907</v>
       </c>
       <c r="G116" t="n">
         <v>0.010054844606946833</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c s="1" r="A117" t="s">
-        <v>10</v>
+      <c r="A117" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="C117" t="n">
-        <v>1.4599999999999991</v>
+        <v>1.459999999999999</v>
       </c>
       <c r="D117" t="n">
         <v>1.3899999999999988</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0092674315975287413</v>
+        <v>0.00927054430412566</v>
       </c>
       <c r="F117" t="n">
-        <v>0.018727236752431153</v>
+        <v>0.01858527685577993</v>
       </c>
       <c r="G117" t="n">
         <v>0.012669683257918507</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c s="1" r="A118" t="s">
-        <v>222</v>
+      <c r="A118" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.85999999999999943</v>
+        <v>0.8599999999999994</v>
       </c>
       <c r="D118" t="n">
         <v>1.4000000000000004</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0045911674682990178</v>
+        <v>0.0045862720160325665</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.012870959504224455</v>
+        <v>-0.012989558718272454</v>
       </c>
       <c r="G118" t="n">
         <v>0.008936550491510209</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c s="1" r="A119" t="s">
-        <v>11</v>
+      <c r="A119" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B119" t="n">
         <v>7.0</v>
@@ -3810,18 +3831,18 @@
         <v>1.2799999999999994</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01006208794725727</v>
+        <v>0.01007698406608859</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0049735744697132489</v>
+        <v>0.005167271276275809</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0079716563330380907</v>
+        <v>0.00797165633303809</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c s="1" r="A120" t="s">
-        <v>44</v>
+      <c r="A120" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>7.0</v>
@@ -3833,21 +3854,21 @@
         <v>1.3800000000000008</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0051837112330641588</v>
+        <v>0.005178132833666638</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0041712666619533323</v>
+        <v>0.004156432682285827</v>
       </c>
       <c r="G120" t="n">
         <v>0.010544815465729274</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c s="1" r="A121" t="s">
-        <v>100</v>
+      <c r="A121" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="C121" t="n">
         <v>1.2999999999999998</v>
@@ -3856,21 +3877,21 @@
         <v>1.3600000000000012</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0069852477619467557</v>
+        <v>0.006990364632533552</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01013662326783793</v>
+        <v>0.010309259740634902</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0078260869565218716</v>
+        <v>0.007826086956521872</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c s="1" r="A122" t="s">
-        <v>29</v>
+      <c r="A122" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="C122" t="n">
         <v>1.5199999999999996</v>
@@ -3879,21 +3900,21 @@
         <v>1.1899999999999995</v>
       </c>
       <c r="E122" t="n">
-        <v>0.011231593709305931</v>
+        <v>0.011219512195121961</v>
       </c>
       <c r="F122" t="n">
-        <v>0.020600592979678201</v>
+        <v>0.02052962501719735</v>
       </c>
       <c r="G122" t="n">
         <v>0.012079378774805694</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c s="1" r="A123" t="s">
-        <v>172</v>
+      <c r="A123" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="C123" t="n">
         <v>1.7699999999999996</v>
@@ -3902,18 +3923,18 @@
         <v>1.1899999999999995</v>
       </c>
       <c r="E123" t="n">
-        <v>0.009076162999467563</v>
+        <v>0.009066508342919333</v>
       </c>
       <c r="F123" t="n">
-        <v>0.018617552191134701</v>
+        <v>0.018127734523407213</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0085251491901108256</v>
+        <v>0.008525149190110826</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c s="1" r="A124" t="s">
-        <v>112</v>
+      <c r="A124" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B124" t="n">
         <v>6.0</v>
@@ -3925,21 +3946,21 @@
         <v>1.0999999999999996</v>
       </c>
       <c r="E124" t="n">
-        <v>0.016492011681841667</v>
+        <v>0.016511399852905173</v>
       </c>
       <c r="F124" t="n">
-        <v>0.025225801349822774</v>
+        <v>0.0255037204031483</v>
       </c>
       <c r="G124" t="n">
         <v>0.012679628064243387</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c s="1" r="A125" t="s">
-        <v>12</v>
+      <c r="A125" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C125" t="n">
         <v>1.6799999999999997</v>
@@ -3948,21 +3969,21 @@
         <v>1.1899999999999995</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0056254376011009022</v>
+        <v>0.005619400195352453</v>
       </c>
       <c r="F125" t="n">
-        <v>0.010429591870954713</v>
+        <v>0.010862675524939913</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0091819699499164908</v>
+        <v>0.00918196994991649</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c s="1" r="A126" t="s">
-        <v>210</v>
+      <c r="A126" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="C126" t="n">
         <v>1.7100000000000009</v>
@@ -3971,21 +3992,21 @@
         <v>1.2300000000000004</v>
       </c>
       <c r="E126" t="n">
-        <v>0.013216652261596185</v>
+        <v>0.013214538390512454</v>
       </c>
       <c r="F126" t="n">
-        <v>0.011780617324925302</v>
+        <v>0.011689824030575835</v>
       </c>
       <c r="G126" t="n">
         <v>0.011579818031430822</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c s="1" r="A127" t="s">
-        <v>65</v>
+      <c r="A127" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="C127" t="n">
         <v>1.3100000000000005</v>
@@ -3994,205 +4015,205 @@
         <v>1.1499999999999986</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0057698003672768117</v>
+        <v>0.005775489673945033</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0028932309221434416</v>
+        <v>0.0019413686977252098</v>
       </c>
       <c r="G127" t="n">
-        <v>0.010629599345870711</v>
+        <v>0.01062959934587071</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c s="1" r="A128" t="s">
-        <v>215</v>
+      <c r="A128" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="C128" t="n">
-        <v>0.69000000000000128</v>
+        <v>0.6900000000000013</v>
       </c>
       <c r="D128" t="n">
-        <v>0.90000000000000036</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E128" t="n">
-        <v>0.013240352447815962</v>
+        <v>0.01324970876528253</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0060052693294607717</v>
+        <v>0.006477237207947573</v>
       </c>
       <c r="G128" t="n">
         <v>0.012944983818770295</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c s="1" r="A129" t="s">
-        <v>32</v>
+      <c r="A129" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="C129" t="n">
-        <v>0.039999999999999147</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="D129" t="n">
         <v>1.0300000000000011</v>
       </c>
       <c r="E129" t="n">
-        <v>0.010091145833333259</v>
+        <v>0.010080247128639419</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0086810212392400832</v>
+        <v>0.009256594490269388</v>
       </c>
       <c r="G129" t="n">
         <v>0.010383386581469534</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c s="1" r="A130" t="s">
-        <v>63</v>
+      <c r="A130" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="C130" t="n">
         <v>-0.17999999999999972</v>
       </c>
       <c r="D130" t="n">
-        <v>0.82000000000000028</v>
+        <v>0.8200000000000003</v>
       </c>
       <c r="E130" t="n">
-        <v>0.007861056120804788</v>
+        <v>0.007864147993147608</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.00096861275635595767</v>
+        <v>-0.0008828542613829038</v>
       </c>
       <c r="G130" t="n">
         <v>0.010276679841897174</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c s="1" r="A131" t="s">
-        <v>14</v>
+      <c r="A131" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="C131" t="n">
-        <v>0.12999999999999989</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="D131" t="n">
         <v>0.9399999999999995</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0074685669258967025</v>
+        <v>0.007460558287037511</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.015637048819598931</v>
+        <v>-0.016227913171634634</v>
       </c>
       <c r="G131" t="n">
         <v>0.010954616588419341</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c s="1" r="A132" t="s">
-        <v>18</v>
+      <c r="A132" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="C132" t="n">
         <v>0.019999999999999574</v>
       </c>
       <c r="D132" t="n">
-        <v>0.89000000000000057</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0021083415513314385</v>
+        <v>0.002117420596727815</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0050017945494862381</v>
+        <v>0.004918849634979017</v>
       </c>
       <c r="G132" t="n">
         <v>0.010835913312693624</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c s="1" r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="C133" t="n">
-        <v>0.29000000000000092</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="D133" t="n">
-        <v>0.94999999999999929</v>
+        <v>0.9499999999999993</v>
       </c>
       <c r="E133" t="n">
-        <v>0.010949359213636933</v>
+        <v>0.010948905109489093</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0028129601635920043</v>
+        <v>0.002901633167673223</v>
       </c>
       <c r="G133" t="n">
         <v>0.011485451761102494</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c s="1" r="A134" t="s">
-        <v>58</v>
+      <c r="A134" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="C134" t="n">
-        <v>0.38999999999999879</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="D134" t="n">
-        <v>0.83999999999999986</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0038713286713287776</v>
+        <v>0.003867174838774634</v>
       </c>
       <c r="F134" t="n">
-        <v>0.013435063858019625</v>
+        <v>0.013783132373365925</v>
       </c>
       <c r="G134" t="n">
         <v>0.014383043149129415</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c s="1" r="A135" t="s">
-        <v>75</v>
+      <c r="A135" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B135" t="n">
         <v>5.5</v>
       </c>
       <c r="C135" t="n">
-        <v>0.53000000000000025</v>
+        <v>0.5300000000000002</v>
       </c>
       <c r="D135" t="n">
-        <v>0.95999999999999908</v>
+        <v>0.9599999999999991</v>
       </c>
       <c r="E135" t="n">
-        <v>0.00024520457863808076</v>
+        <v>0.00024494249418238745</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0036873014344853683</v>
+        <v>0.0037314091283164874</v>
       </c>
       <c r="G135" t="n">
         <v>0.013432835820895717</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c s="1" r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="C136" t="n">
         <v>1.1700000000000008</v>
@@ -4201,21 +4222,21 @@
         <v>1.2100000000000009</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.0085243417313884962</v>
+        <v>-0.008515232805351824</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.0027689051314271351</v>
+        <v>-0.003043074528155665</v>
       </c>
       <c r="G136" t="n">
         <v>0.013254786450662692</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c s="1" r="A137" t="s">
-        <v>95</v>
+      <c r="A137" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C137" t="n">
         <v>1.4500000000000002</v>
@@ -4224,205 +4245,205 @@
         <v>1.4100000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.0046865517318886996</v>
+        <v>-0.004692727395199436</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.023318894620911634</v>
+        <v>-0.02303219569751458</v>
       </c>
       <c r="G137" t="n">
         <v>0.01380813953488369</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c s="1" r="A138" t="s">
-        <v>62</v>
+      <c r="A138" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="C138" t="n">
-        <v>1.7999999999999989</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>1.0800000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0077686566321517603</v>
+        <v>0.007760332070023468</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.0099566673232224234</v>
+        <v>-0.009779919003892301</v>
       </c>
       <c r="G138" t="n">
         <v>0.01003584229390686</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c s="1" r="A139" t="s">
-        <v>49</v>
+      <c r="A139" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="C139" t="n">
         <v>1.96</v>
       </c>
       <c r="D139" t="n">
-        <v>0.89000000000000057</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0047955719391814533</v>
+        <v>0.004801665472779382</v>
       </c>
       <c r="F139" t="n">
-        <v>0.019690835480309143</v>
+        <v>0.01939176603938675</v>
       </c>
       <c r="G139" t="n">
         <v>0.009936124911284594</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c s="1" r="A140" t="s">
-        <v>229</v>
+      <c r="A140" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B140" t="n">
         <v>7.0</v>
       </c>
       <c r="C140" t="n">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D140" t="n">
         <v>0.9399999999999995</v>
       </c>
       <c r="E140" t="n">
-        <v>0.004360092331366916</v>
+        <v>0.004355429806289335</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0080123436918240198</v>
+        <v>0.007749279042321033</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0098383696416020072</v>
+        <v>0.009838369641602007</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c s="1" r="A141" t="s">
-        <v>175</v>
+      <c r="A141" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="C141" t="n">
-        <v>2.8799999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="D141" t="n">
-        <v>0.93000000000000149</v>
+        <v>0.9300000000000015</v>
       </c>
       <c r="E141" t="n">
-        <v>0.011813296620331482</v>
+        <v>0.01182290049243595</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.010963274562525549</v>
+        <v>-0.010903002156726349</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0097425191370912323</v>
+        <v>0.009742519137091232</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c s="1" r="A142" t="s">
-        <v>193</v>
+      <c r="A142" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="C142" t="n">
         <v>3.1800000000000006</v>
       </c>
       <c r="D142" t="n">
-        <v>0.88000000000000078</v>
+        <v>0.8800000000000008</v>
       </c>
       <c r="E142" t="n">
-        <v>0.01102795944344459</v>
+        <v>0.011016113120684068</v>
       </c>
       <c r="F142" t="n">
-        <v>0.02306656098841775</v>
+        <v>0.02313907254526537</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0082701585113715836</v>
+        <v>0.008270158511371584</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c s="1" r="A143" t="s">
-        <v>97</v>
+      <c r="A143" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="C143" t="n">
         <v>3.2399999999999998</v>
       </c>
       <c r="D143" t="n">
-        <v>0.76999999999999957</v>
+        <v>0.7699999999999996</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0097246491637450472</v>
+        <v>0.009725158562367886</v>
       </c>
       <c r="F143" t="n">
-        <v>0.012177081772475562</v>
+        <v>0.012139953773810497</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0088858509911140526</v>
+        <v>0.008885850991114053</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c s="1" r="A144" t="s">
-        <v>91</v>
+      <c r="A144" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="C144" t="n">
         <v>3.29</v>
       </c>
       <c r="D144" t="n">
-        <v>0.84999999999999964</v>
+        <v>0.8499999999999996</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0100179506196727</v>
+        <v>0.010018038912511296</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0049435795673777871</v>
+        <v>0.005173505353042396</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0081300813008131634</v>
+        <v>0.008130081300813163</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c s="1" r="A145" t="s">
-        <v>76</v>
+      <c r="A145" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="C145" t="n">
         <v>3.0999999999999996</v>
       </c>
       <c r="D145" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0018623955728196417</v>
+        <v>0.001871046616701344</v>
       </c>
       <c r="F145" t="n">
-        <v>0.009377781678221675</v>
+        <v>0.009665476434819409</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0087365591397847719</v>
+        <v>0.008736559139784772</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c s="1" r="A146" t="s">
-        <v>146</v>
+      <c r="A146" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="C146" t="n">
         <v>2.7299999999999995</v>
@@ -4431,294 +4452,294 @@
         <v>0.6800000000000006</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0059379647333757113</v>
+        <v>0.005942211988412716</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0063221174746308506</v>
+        <v>0.006236615871636708</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0086608927381746081</v>
+        <v>0.008660892738174608</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c s="1" r="A147" t="s">
-        <v>167</v>
+      <c r="A147" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="C147" t="n">
         <v>2.3399999999999994</v>
       </c>
       <c r="D147" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0048786154024857975</v>
+        <v>0.004873366314701144</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0016276845223399672</v>
+        <v>0.0010008651546251635</v>
       </c>
       <c r="G147" t="n">
         <v>0.005944517833553542</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c s="1" r="A148" t="s">
-        <v>213</v>
+      <c r="A148" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="C148" t="n">
-        <v>1.9399999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="D148" t="n">
-        <v>0.63999999999999968</v>
+        <v>0.6399999999999997</v>
       </c>
       <c r="E148" t="n">
-        <v>0.013345803427874836</v>
+        <v>0.01335250831907464</v>
       </c>
       <c r="F148" t="n">
-        <v>0.011717227728872626</v>
+        <v>0.011795010845986997</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0072225869993434166</v>
+        <v>0.007222586999343417</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c s="1" r="A149" t="s">
-        <v>115</v>
+      <c r="A149" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="C149" t="n">
         <v>2.21</v>
       </c>
       <c r="D149" t="n">
-        <v>0.73000000000000043</v>
+        <v>0.7300000000000004</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0097997531914011393</v>
+        <v>0.009809913502874634</v>
       </c>
       <c r="F149" t="n">
-        <v>0.013163383686904728</v>
+        <v>0.013373551947181817</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0071707953063884222</v>
+        <v>0.007170795306388422</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c s="1" r="A150" t="s">
-        <v>61</v>
+      <c r="A150" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C150" t="n">
         <v>2.1499999999999995</v>
       </c>
       <c r="D150" t="n">
-        <v>0.63999999999999968</v>
+        <v>0.6399999999999997</v>
       </c>
       <c r="E150" t="n">
-        <v>0.01366866579033843</v>
+        <v>0.013664061057425902</v>
       </c>
       <c r="F150" t="n">
-        <v>0.016167569289582628</v>
+        <v>0.015930232732856764</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0064724919093850364</v>
+        <v>0.006472491909385036</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c s="1" r="A151" t="s">
-        <v>67</v>
+      <c r="A151" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="C151" t="n">
         <v>1.8199999999999994</v>
       </c>
       <c r="D151" t="n">
-        <v>0.69000000000000128</v>
+        <v>0.6900000000000013</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0058962383620209113</v>
+        <v>0.005899973687939042</v>
       </c>
       <c r="F151" t="n">
-        <v>0.013773481390125131</v>
+        <v>0.014117128536122792</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0077170418006429209</v>
+        <v>0.007717041800642921</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c s="1" r="A152" t="s">
-        <v>163</v>
+      <c r="A152" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C152" t="n">
-        <v>1.6299999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="D152" t="n">
-        <v>0.62999999999999901</v>
+        <v>0.629999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>0.011350703501898485</v>
+        <v>0.011348431039166051</v>
       </c>
       <c r="F152" t="n">
-        <v>0.017691137364504783</v>
+        <v>0.01767749688627518</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0070197830248883708</v>
+        <v>0.007019783024888371</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c s="1" r="A153" t="s">
-        <v>5</v>
+      <c r="A153" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C153" t="n">
-        <v>0.73000000000000043</v>
+        <v>0.7300000000000004</v>
       </c>
       <c r="D153" t="n">
-        <v>0.61999999999999922</v>
+        <v>0.6199999999999992</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0034157903123006594</v>
+        <v>0.003422034319820799</v>
       </c>
       <c r="F153" t="n">
-        <v>0.018880013301436627</v>
+        <v>0.01859858554446503</v>
       </c>
       <c r="G153" t="n">
         <v>0.0076045627376424285</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c s="1" r="A154" t="s">
-        <v>72</v>
+      <c r="A154" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C154" t="n">
-        <v>0.79000000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="D154" t="n">
-        <v>0.57000000000000028</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0034934844530016829</v>
+        <v>0.0034896747266257577</v>
       </c>
       <c r="F154" t="n">
-        <v>0.00053176448741698579</v>
+        <v>0.0002138516797909329</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0088050314465408785</v>
+        <v>0.008805031446540879</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c s="1" r="A155" t="s">
-        <v>51</v>
+      <c r="A155" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C155" t="n">
-        <v>0.69000000000000039</v>
+        <v>0.6900000000000004</v>
       </c>
       <c r="D155" t="n">
-        <v>0.62999999999999901</v>
+        <v>0.629999999999999</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0085648445767523285</v>
+        <v>0.00856541626737517</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0024226011959749272</v>
+        <v>0.002842775257587027</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0062344139650871711</v>
+        <v>0.006234413965087171</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c s="1" r="A156" t="s">
-        <v>203</v>
+      <c r="A156" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B156" t="n">
         <v>5.5</v>
       </c>
       <c r="C156" t="n">
-        <v>0.45000000000000018</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="D156" t="n">
-        <v>0.62999999999999989</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0070996401149279187</v>
+        <v>0.007091920695870391</v>
       </c>
       <c r="F156" t="n">
-        <v>0.015109223471193811</v>
+        <v>0.01563372261012752</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0080545229244113337</v>
+        <v>0.008054522924411334</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c s="1" r="A157" t="s">
-        <v>143</v>
+      <c r="A157" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C157" t="n">
         <v>0.5600000000000005</v>
       </c>
       <c r="D157" t="n">
-        <v>0.66000000000000014</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0065530033787402076</v>
+        <v>0.006565381472979803</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.00016719311772317447</v>
+        <v>-0.0003245443949111415</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0061462814996926518</v>
+        <v>0.006146281499692652</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c s="1" r="A158" t="s">
-        <v>160</v>
+      <c r="A158" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C158" t="n">
-        <v>0.96999999999999975</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="D158" t="n">
         <v>0.6899999999999995</v>
       </c>
       <c r="E158" t="n">
-        <v>0.017460870238164228</v>
+        <v>0.01746113038352637</v>
       </c>
       <c r="F158" t="n">
-        <v>0.022869209624747588</v>
+        <v>0.023010069668456534</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0054978619425778419</v>
+        <v>0.005497861942577842</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c s="1" r="A159" t="s">
-        <v>197</v>
+      <c r="A159" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B159" t="n">
         <v>5.5</v>
@@ -4727,205 +4748,205 @@
         <v>1.0200000000000005</v>
       </c>
       <c r="D159" t="n">
-        <v>0.69999999999999929</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0092508960914252647</v>
+        <v>0.009250289665128086</v>
       </c>
       <c r="F159" t="n">
-        <v>0.014579654417198773</v>
+        <v>0.013591928838521339</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0066828675577157437</v>
+        <v>0.006682867557715744</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c s="1" r="A160" t="s">
-        <v>140</v>
+      <c r="A160" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="C160" t="n">
-        <v>0.98000000000000043</v>
+        <v>0.9800000000000004</v>
       </c>
       <c r="D160" t="n">
         <v>0.6800000000000006</v>
       </c>
       <c r="E160" t="n">
-        <v>0.010569749039113674</v>
+        <v>0.010567621485301437</v>
       </c>
       <c r="F160" t="n">
-        <v>0.01189854740509122</v>
+        <v>0.011896165355232968</v>
       </c>
       <c r="G160" t="n">
         <v>0.006638503319251754</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c s="1" r="A161" t="s">
-        <v>15</v>
+      <c r="A161" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="C161" t="n">
-        <v>0.96999999999999975</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="D161" t="n">
-        <v>0.66999999999999993</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E161" t="n">
-        <v>0.007616011335458861</v>
+        <v>0.007617025635295205</v>
       </c>
       <c r="F161" t="n">
-        <v>0.015835665978388258</v>
+        <v>0.016538359751786302</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0059952038369304184</v>
+        <v>0.005995203836930418</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c s="1" r="A162" t="s">
-        <v>79</v>
+      <c r="A162" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C162" t="n">
-        <v>0.89999999999999947</v>
+        <v>0.8999999999999995</v>
       </c>
       <c r="D162" t="n">
-        <v>0.60999999999999943</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="E162" t="n">
-        <v>0.015089137856065804</v>
+        <v>0.015091166169172832</v>
       </c>
       <c r="F162" t="n">
-        <v>0.020356263764736537</v>
+        <v>0.019964562706911826</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0065554231227651361</v>
+        <v>0.006555423122765136</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c s="1" r="A163" t="s">
-        <v>25</v>
+      <c r="A163" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C163" t="n">
-        <v>0.67999999999999972</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="D163" t="n">
-        <v>0.61000000000000032</v>
+        <v>0.6100000000000003</v>
       </c>
       <c r="E163" t="n">
-        <v>0.012741291627932361</v>
+        <v>0.012727372043480623</v>
       </c>
       <c r="F163" t="n">
-        <v>0.017626677060942342</v>
+        <v>0.019893788048488847</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0047365304914148698</v>
+        <v>0.00473653049141487</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c s="1" r="A164" t="s">
-        <v>219</v>
+      <c r="A164" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="C164" t="n">
-        <v>0.57000000000000028</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="D164" t="n">
-        <v>0.57000000000000028</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0077573794096472692</v>
+        <v>0.00775800071916577</v>
       </c>
       <c r="F164" t="n">
-        <v>0.029066894906524698</v>
+        <v>0.027830487033523088</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0053034767236299629</v>
+        <v>0.005303476723629963</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c s="1" r="A165" t="s">
-        <v>50</v>
+      <c r="A165" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C165" t="n">
-        <v>0.29999999999999982</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="D165" t="n">
-        <v>0.58000000000000007</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0098944473218909312</v>
+        <v>0.009892687974452308</v>
       </c>
       <c r="F165" t="n">
-        <v>0.017479537289962543</v>
+        <v>0.017224712295578426</v>
       </c>
       <c r="G165" t="n">
         <v>0.0058616647127784915</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c s="1" r="A166" t="s">
-        <v>179</v>
+      <c r="A166" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="C166" t="n">
-        <v>0.25999999999999979</v>
+        <v>0.2599999999999998</v>
       </c>
       <c r="D166" t="n">
-        <v>0.63999999999999968</v>
+        <v>0.6399999999999997</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0097002387478999363</v>
+        <v>0.009698618521004843</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0053598026715602209</v>
+        <v>0.0051219515099694135</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0052447552447552059</v>
+        <v>0.005244755244755206</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c s="1" r="A167" t="s">
-        <v>13</v>
+      <c r="A167" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B167" t="n">
         <v>4.5</v>
       </c>
       <c r="C167" t="n">
-        <v>0.099999999999999645</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="D167" t="n">
-        <v>0.60000000000000053</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="E167" t="n">
-        <v>0.013083801133228823</v>
+        <v>0.013087218965969871</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.0034253556917795969</v>
+        <v>-0.004161038837942277</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0057971014492752548</v>
+        <v>0.005797101449275255</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c s="1" r="A168" t="s">
-        <v>102</v>
+      <c r="A168" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B168" t="n">
         <v>4.5</v>
@@ -4934,24 +4955,24 @@
         <v>0.41000000000000014</v>
       </c>
       <c r="D168" t="n">
-        <v>0.80999999999999961</v>
+        <v>0.8099999999999996</v>
       </c>
       <c r="E168" t="n">
-        <v>0.01640718873453717</v>
+        <v>0.016415384349688367</v>
       </c>
       <c r="F168" t="n">
-        <v>0.02601395307902532</v>
+        <v>0.02605805060748989</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0051873198847263158</v>
+        <v>0.005187319884726316</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c s="1" r="A169" t="s">
-        <v>123</v>
+      <c r="A169" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="C169" t="n">
         <v>0.20999999999999996</v>
@@ -4960,297 +4981,297 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0093469071858069963</v>
+        <v>0.007985931168069893</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0071566760288446218</v>
+        <v>0.007777043401630213</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0068807339449541427</v>
+        <v>0.006880733944954143</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c s="1" r="A170" t="s">
-        <v>107</v>
+      <c r="A170" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="C170" t="n">
-        <v>0.48999999999999932</v>
+        <v>0.4899999999999993</v>
       </c>
       <c r="D170" t="n">
-        <v>0.84000000000000075</v>
+        <v>0.8400000000000007</v>
       </c>
       <c r="E170" t="n">
-        <v>0.008417735384822933</v>
+        <v>0.008242939138789707</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0088160991638517316</v>
+        <v>0.008401630620503475</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0039863325740319144</v>
+        <v>0.003986332574031914</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c s="1" r="A171" t="s">
-        <v>92</v>
+      <c r="A171" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="C171" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="D171" t="n">
-        <v>0.75999999999999979</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="E171" t="n">
-        <v>0.012734276427383673</v>
+        <v>0.012589341692790024</v>
       </c>
       <c r="F171" t="n">
-        <v>0.012315678389093199</v>
+        <v>0.01249516498387182</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0045377197958025306</v>
+        <v>0.004537719795802531</v>
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c s="1" r="A172" t="s">
-        <v>141</v>
+      <c r="A172" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="C172" t="n">
         <v>0.6800000000000006</v>
       </c>
       <c r="D172" t="n">
-        <v>0.83000000000000096</v>
+        <v>0.830000000000001</v>
       </c>
       <c r="E172" t="n">
-        <v>0.017301837443585377</v>
+        <v>0.01735311357125746</v>
       </c>
       <c r="F172" t="n">
-        <v>0.014200063111391659</v>
+        <v>0.013882596887431431</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0056465273856578513</v>
+        <v>0.005646527385657851</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c s="1" r="A173" t="s">
-        <v>205</v>
+      <c r="A173" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B173" t="n">
         <v>4.0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.54000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="D173" t="n">
-        <v>0.54999999999999982</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0028710927995589941</v>
+        <v>0.0029050660131622053</v>
       </c>
       <c r="F173" t="n">
-        <v>0.013792337096630636</v>
+        <v>0.012953364996126426</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0067377877596856983</v>
+        <v>0.006737787759685698</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c s="1" r="A174" t="s">
-        <v>185</v>
+      <c r="A174" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="C174" t="n">
         <v>-0.16000000000000014</v>
       </c>
       <c r="D174" t="n">
-        <v>0.76000000000000068</v>
+        <v>0.7600000000000007</v>
       </c>
       <c r="E174" t="n">
-        <v>0.018883641186555833</v>
+        <v>0.01888487025754304</v>
       </c>
       <c r="F174" t="n">
-        <v>0.014106706769027033</v>
+        <v>0.014678337354870674</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0055772448410484898</v>
+        <v>0.00557724484104849</v>
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c s="1" r="A175" t="s">
-        <v>23</v>
+      <c r="A175" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B175" t="n">
         <v>4.0</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.030000000000000249</v>
+        <v>-0.03000000000000025</v>
       </c>
       <c r="D175" t="n">
-        <v>0.69999999999999929</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="E175" t="n">
-        <v>0.001277909625596152</v>
+        <v>0.001207067699027231</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.00023562422044054454</v>
+        <v>0.0017572886927936793</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0066555740432612254</v>
+        <v>0.006655574043261225</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c s="1" r="A176" t="s">
-        <v>71</v>
+      <c r="A176" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.26999999999999957</v>
+        <v>-0.2699999999999996</v>
       </c>
       <c r="D176" t="n">
-        <v>0.79000000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0053270761327963712</v>
+        <v>0.005679069140287263</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.0023232834297673977</v>
+        <v>-0.003086323130151225</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0060606060606060996</v>
+        <v>0.0060606060606061</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c s="1" r="A177" t="s">
-        <v>4</v>
+      <c r="A177" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="C177" t="n">
         <v>0.35000000000000053</v>
       </c>
       <c r="D177" t="n">
-        <v>0.77999999999999936</v>
+        <v>0.7799999999999994</v>
       </c>
       <c r="E177" t="n">
-        <v>-0.0028623245544866505</v>
+        <v>-0.0028392734614687276</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.010477495977070816</v>
+        <v>-0.010319593366872937</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0071193866374590353</v>
+        <v>0.007119386637459035</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c s="1" r="A178" t="s">
-        <v>52</v>
+      <c r="A178" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C178" t="n">
         <v>1.1599999999999997</v>
       </c>
       <c r="D178" t="n">
-        <v>0.87000000000000011</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0053061514981376234</v>
+        <v>0.005299249404823181</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.011478745375977595</v>
+        <v>-0.012114368744228443</v>
       </c>
       <c r="G178" t="n">
         <v>0.006525285481239651</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c s="1" r="A179" t="s">
-        <v>194</v>
+      <c r="A179" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C179" t="n">
-        <v>1.6200000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="D179" t="n">
-        <v>0.83999999999999986</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.0030441759486501407</v>
+        <v>-0.0031627892339283203</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.018245587603192281</v>
+        <v>-0.019120950199582598</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0070232306861157667</v>
+        <v>0.007023230686115767</v>
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c s="1" r="A180" t="s">
-        <v>88</v>
+      <c r="A180" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="C180" t="n">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="D180" t="n">
-        <v>0.87999999999999989</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0024538231511508357</v>
+        <v>0.0027781943315363655</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.010692676938075851</v>
+        <v>-0.01045482261014885</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0053648068669527316</v>
+        <v>0.005364806866952732</v>
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c s="1" r="A181" t="s">
-        <v>105</v>
+      <c r="A181" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C181" t="n">
-        <v>2.8799999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="D181" t="n">
         <v>1.3200000000000003</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0093977269149638776</v>
+        <v>0.009208755401289181</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00098318996096891098</v>
+        <v>0.00090259607627452</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0069370330843114836</v>
+        <v>0.006937033084311484</v>
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c s="1" r="A182" t="s">
-        <v>41</v>
+      <c r="A182" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="C182" t="n">
         <v>2.73</v>
@@ -5259,44 +5280,44 @@
         <v>1.2699999999999996</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0054660574208942325</v>
+        <v>0.005513831371906752</v>
       </c>
       <c r="F182" t="n">
-        <v>0.011219234275296364</v>
+        <v>0.01250182408522127</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0052994170641229577</v>
+        <v>0.005299417064122958</v>
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c s="1" r="A183" t="s">
-        <v>207</v>
+      <c r="A183" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C183" t="n">
         <v>2.6900000000000004</v>
       </c>
       <c r="D183" t="n">
-        <v>1.3700000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0048081770029546611</v>
+        <v>0.0048708601566740395</v>
       </c>
       <c r="F183" t="n">
-        <v>0.011580422921507294</v>
+        <v>0.011539007203997587</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0042171850289931534</v>
+        <v>0.004217185028993153</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c s="1" r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C184" t="n">
         <v>2.29</v>
@@ -5305,21 +5326,21 @@
         <v>1.4100000000000001</v>
       </c>
       <c r="E184" t="n">
-        <v>0.00047851690631084409</v>
+        <v>0.0006329211627225106</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.0014224877829799309</v>
+        <v>-0.001932397263476271</v>
       </c>
       <c r="G184" t="n">
         <v>0.005249343832020914</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c s="1" r="A185" t="s">
-        <v>138</v>
+      <c r="A185" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C185" t="n">
         <v>2.6899999999999995</v>
@@ -5328,64 +5349,64 @@
         <v>1.1799999999999997</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0050683103317930023</v>
+        <v>0.0051835853131749765</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0079402440303151245</v>
+        <v>0.007040808360193385</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0046997389033942572</v>
+        <v>0.004699738903394257</v>
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c s="1" r="A186" t="s">
-        <v>98</v>
+      <c r="A186" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B186" t="n">
         <v>6.0</v>
       </c>
       <c r="C186" t="n">
-        <v>2.6899999999999999</v>
+        <v>2.69</v>
       </c>
       <c r="D186" t="n">
         <v>1.1099999999999994</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0094561196137727954</v>
+        <v>0.009277733439744695</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.0064920691838097344</v>
+        <v>-0.00707685867214225</v>
       </c>
       <c r="G186" t="n">
         <v>0.0005197505197505059</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c s="1" r="A187" t="s">
-        <v>82</v>
+      <c r="A187" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="C187" t="n">
-        <v>2.8599999999999999</v>
+        <v>2.86</v>
       </c>
       <c r="D187" t="n">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="E187" t="n">
-        <v>0.016895025775939487</v>
+        <v>0.016750176777852843</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0034744424071346813</v>
+        <v>0.006802721088435382</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0046753246753246103</v>
+        <v>0.00467532467532461</v>
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c s="1" r="A188" t="s">
-        <v>96</v>
+      <c r="A188" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B188" t="n">
         <v>6.0</v>
@@ -5397,87 +5418,87 @@
         <v>1.0300000000000002</v>
       </c>
       <c r="E188" t="n">
-        <v>0.011342904142365828</v>
+        <v>0.011688253417486916</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0045147904624358581</v>
+        <v>0.0038608455971957945</v>
       </c>
       <c r="G188" t="n">
         <v>0.0031023784901758056</v>
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c s="1" r="A189" t="s">
-        <v>227</v>
+      <c r="A189" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="C189" t="n">
-        <v>2.9100000000000001</v>
+        <v>2.91</v>
       </c>
       <c r="D189" t="n">
-        <v>0.90000000000000036</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0059812061482953371</v>
+        <v>0.005750737321398081</v>
       </c>
       <c r="F189" t="n">
-        <v>0.009671957952621657</v>
+        <v>0.009153141302032708</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0030927835051546282</v>
+        <v>0.003092783505154628</v>
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c s="1" r="A190" t="s">
-        <v>148</v>
+      <c r="A190" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="C190" t="n">
-        <v>2.9199999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="D190" t="n">
-        <v>0.72999999999999954</v>
+        <v>0.7299999999999995</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0076506989255213931</v>
+        <v>0.007327380296181962</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0043419917779070616</v>
+        <v>0.0038570433417064454</v>
       </c>
       <c r="G190" t="n">
         <v>0.0066803699897226565</v>
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c s="1" r="A191" t="s">
-        <v>186</v>
+      <c r="A191" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B191" t="n">
         <v>5.5</v>
       </c>
       <c r="C191" t="n">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="D191" t="n">
-        <v>0.79999999999999982</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0087741690796239169</v>
+        <v>0.009090776436940784</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0071250856852038691</v>
+        <v>0.00718006706189156</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0045941807044411753</v>
+        <v>0.004594180704441175</v>
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c s="1" r="A192" t="s">
-        <v>196</v>
+      <c r="A192" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B192" t="n">
         <v>5.5</v>
@@ -5486,90 +5507,90 @@
         <v>1.8699999999999997</v>
       </c>
       <c r="D192" t="n">
-        <v>0.74000000000000021</v>
+        <v>0.7400000000000002</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0084375677825176965</v>
+        <v>0.008647366746681318</v>
       </c>
       <c r="F192" t="n">
-        <v>0.011750371426005213</v>
+        <v>0.010623558080750772</v>
       </c>
       <c r="G192" t="n">
         <v>0.0055894308943089666</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c s="1" r="A193" t="s">
-        <v>3</v>
+      <c r="A193" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="C193" t="n">
         <v>1.3599999999999999</v>
       </c>
       <c r="D193" t="n">
-        <v>0.65999999999999925</v>
+        <v>0.6599999999999993</v>
       </c>
       <c r="E193" t="n">
-        <v>0.010933702330850226</v>
+        <v>0.010659192567955111</v>
       </c>
       <c r="F193" t="n">
-        <v>0.01291443850267382</v>
+        <v>0.013661596945966803</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0055583628094997284</v>
+        <v>0.005558362809499728</v>
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c s="1" r="A194" t="s">
-        <v>137</v>
+      <c r="A194" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="C194" t="n">
         <v>1.02</v>
       </c>
       <c r="D194" t="n">
-        <v>0.71999999999999975</v>
+        <v>0.7199999999999998</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0054609154480078637</v>
+        <v>0.005220191359732285</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0065306337935220338</v>
+        <v>0.006910306439624314</v>
       </c>
       <c r="G194" t="n">
         <v>0.0060301507537687815</v>
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c s="1" r="A195" t="s">
-        <v>116</v>
+      <c r="A195" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B195" t="n">
         <v>5.0</v>
       </c>
       <c r="C195" t="n">
-        <v>0.53999999999999959</v>
+        <v>0.5399999999999996</v>
       </c>
       <c r="D195" t="n">
-        <v>0.89000000000000057</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0081609908867759096</v>
+        <v>0.0084034799297239</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0046409164341314479</v>
+        <v>0.0037339529675017857</v>
       </c>
       <c r="G195" t="n">
         <v>0.0034965034965035446</v>
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c s="1" r="A196" t="s">
-        <v>87</v>
+      <c r="A196" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B196" t="n">
         <v>5.0</v>
@@ -5578,136 +5599,136 @@
         <v>0.28000000000000025</v>
       </c>
       <c r="D196" t="n">
-        <v>0.95000000000000018</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0055342162892064728</v>
+        <v>0.005709567724149434</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.0061022216096332516</v>
+        <v>-0.00567881476157539</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0054753608760578221</v>
+        <v>0.005475360876057822</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c s="1" r="A197" t="s">
-        <v>189</v>
+      <c r="A197" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.030000000000000249</v>
+        <v>-0.03000000000000025</v>
       </c>
       <c r="D197" t="n">
-        <v>0.95000000000000018</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="E197" t="n">
-        <v>0.012134706373504001</v>
+        <v>0.012015250393087262</v>
       </c>
       <c r="F197" t="n">
-        <v>0.016494368801479364</v>
+        <v>0.016862679999916086</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0059405940594059459</v>
+        <v>0.005940594059405946</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c s="1" r="A198" t="s">
-        <v>19</v>
+      <c r="A198" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="C198" t="n">
-        <v>0.089999999999999858</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="D198" t="n">
-        <v>0.83999999999999986</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0031072980256283689</v>
+        <v>0.002990492296904401</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0071924674948837808</v>
+        <v>0.006761336397149931</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0078740157480317041</v>
+        <v>0.007874015748031704</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c s="1" r="A199" t="s">
-        <v>181</v>
+      <c r="A199" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.12999999999999989</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="D199" t="n">
-        <v>0.91000000000000014</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="E199" t="n">
-        <v>0.00087721702897547438</v>
+        <v>0.0008910456763722152</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0032211423510952741</v>
+        <v>0.002534893267651883</v>
       </c>
       <c r="G199" t="n">
         <v>0.00732421875</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c s="1" r="A200" t="s">
-        <v>89</v>
+      <c r="A200" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C200" t="n">
         <v>-0.27999999999999936</v>
       </c>
       <c r="D200" t="n">
-        <v>0.91000000000000014</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="E200" t="n">
-        <v>0.007805866725096644</v>
+        <v>0.007827373207510924</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.00019025447046872035</v>
+        <v>0.0012181764206087298</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0063015026660202533</v>
+        <v>0.006301502666020253</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c s="1" r="A201" t="s">
-        <v>54</v>
+      <c r="A201" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.29999999999999982</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="D201" t="n">
         <v>0.9399999999999995</v>
       </c>
       <c r="E201" t="n">
-        <v>0.00065903902598107855</v>
+        <v>0.0006183367421128683</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0042518711916288421</v>
+        <v>0.003717563339672436</v>
       </c>
       <c r="G201" t="n">
         <v>0.00481695568400764</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c s="1" r="A202" t="s">
-        <v>147</v>
+      <c r="A202" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B202" t="n">
         <v>4.5</v>
@@ -5716,67 +5737,67 @@
         <v>-0.23999999999999932</v>
       </c>
       <c r="D202" t="n">
-        <v>0.91999999999999993</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E202" t="n">
-        <v>0.0076995674934308145</v>
+        <v>0.007653130517452089</v>
       </c>
       <c r="F202" t="n">
-        <v>0.019258196754712742</v>
+        <v>0.019582436925484004</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0054985618408438519</v>
+        <v>0.005498561840843852</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c s="1" r="A203" t="s">
-        <v>46</v>
+      <c r="A203" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="C203" t="n">
         <v>0.040000000000000036</v>
       </c>
       <c r="D203" t="n">
-        <v>0.91999999999999993</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>0.0067378634235084611</v>
+        <v>0.0067256565602107354</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00092252766583511558</v>
+        <v>0.00083623066778582</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0048916075080929211</v>
+        <v>0.004891607508092921</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c s="1" r="A204" t="s">
-        <v>55</v>
+      <c r="A204" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="C204" t="n">
         <v>0.4300000000000006</v>
       </c>
       <c r="D204" t="n">
-        <v>0.82000000000000028</v>
+        <v>0.8200000000000003</v>
       </c>
       <c r="E204" t="n">
-        <v>0.0036542515811666121</v>
+        <v>0.0035679619774406923</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00078687084034401167</v>
+        <v>0.00021062992322473661</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0061867506748967127</v>
+        <v>0.006186750674896713</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c s="1" r="A205" t="s">
-        <v>56</v>
+      <c r="A205" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B205" t="n">
         <v>5.0</v>
@@ -5788,18 +5809,18 @@
         <v>1.21</v>
       </c>
       <c r="E205" t="n">
-        <v>-0.0067150792539394377</v>
+        <v>-0.006823730305900555</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0027488892192655268</v>
+        <v>0.002947199910575904</v>
       </c>
       <c r="G205" t="n">
         <v>0.007987664857575183</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c s="1" r="A206" t="s">
-        <v>43</v>
+      <c r="A206" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B206" t="n">
         <v>5.0</v>
@@ -5808,24 +5829,24 @@
         <v>1.9400000000000002</v>
       </c>
       <c r="D206" t="n">
-        <v>1.4199999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="E206" t="n">
-        <v>0.0049545497267613481</v>
+        <v>0.004963229121192736</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.01264206778655852</v>
+        <v>-0.012514416556127284</v>
       </c>
       <c r="G206" t="n">
         <v>0.0036908654588321266</v>
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c s="1" r="A207" t="s">
-        <v>118</v>
+      <c r="A207" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C207" t="n">
         <v>1.73</v>
@@ -5834,110 +5855,110 @@
         <v>1.4900000000000002</v>
       </c>
       <c r="E207" t="n">
-        <v>-0.0049501643374395554</v>
+        <v>-0.004798374700936914</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.011177367518817927</v>
+        <v>-0.011468793615123762</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0065482848620432854</v>
+        <v>0.006548284862043285</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c s="1" r="A208" t="s">
-        <v>8</v>
+      <c r="A208" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B208" t="n">
         <v>6.5</v>
       </c>
       <c r="C208" t="n">
-        <v>2.3900000000000001</v>
+        <v>2.39</v>
       </c>
       <c r="D208" t="n">
         <v>2.6000000000000005</v>
       </c>
       <c r="E208" t="n">
-        <v>-0.021517143221596369</v>
+        <v>-0.021126003921673964</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.049666626578962925</v>
+        <v>-0.04874388866461965</v>
       </c>
       <c r="G208" t="n">
         <v>0.0038108026763594705</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c s="1" r="A209" t="s">
-        <v>221</v>
+      <c r="A209" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="C209" t="n">
-        <v>2.0800000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="D209" t="n">
         <v>3.0900000000000007</v>
       </c>
       <c r="E209" t="n">
-        <v>-0.013894034827714008</v>
+        <v>-0.013857446662550621</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.061096037321035968</v>
+        <v>-0.06190443530929712</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0026016200158680558</v>
+        <v>0.0025739432071885116</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c s="1" r="A210" t="s">
-        <v>224</v>
+      <c r="A210" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B210" t="n">
         <v>9.0</v>
       </c>
       <c r="C210" t="n">
-        <v>2.3799999999999999</v>
+        <v>2.38</v>
       </c>
       <c r="D210" t="n">
-        <v>3.0000000000000009</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="E210" t="n">
-        <v>-0.0010576046645932591</v>
+        <v>-0.0013495652173912687</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.029868152478466192</v>
+        <v>-0.029585940766431063</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0061697154845594682</v>
+        <v>0.006257304022158294</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c s="1" r="A211" t="s">
-        <v>117</v>
+      <c r="A211" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B211" t="n">
         <v>9.5</v>
       </c>
       <c r="C211" t="n">
-        <v>3.0800000000000001</v>
+        <v>3.08</v>
       </c>
       <c r="D211" t="n">
         <v>1.6799999999999997</v>
       </c>
       <c r="E211" t="n">
-        <v>0.0031761731292967443</v>
+        <v>0.0032670177491709307</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.0053171198070954828</v>
+        <v>-0.004488612485476606</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0026887005985558599</v>
+        <v>0.002546797984508853</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c s="1" r="A212" t="s">
-        <v>85</v>
+      <c r="A212" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B212" t="n">
         <v>10.0</v>
@@ -5949,67 +5970,67 @@
         <v>1.1399999999999997</v>
       </c>
       <c r="E212" t="n">
-        <v>0.0095608401319215996</v>
+        <v>0.009678875195278547</v>
       </c>
       <c r="F212" t="n">
-        <v>0.020613956175072445</v>
+        <v>0.020581314224224823</v>
       </c>
       <c r="G212" t="n">
-        <v>0.005476990710549634</v>
+        <v>0.005646187455247587</v>
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c s="1" r="A213" t="s">
-        <v>103</v>
+      <c r="A213" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="C213" t="n">
-        <v>3.3799999999999999</v>
+        <v>3.38</v>
       </c>
       <c r="D213" t="n">
-        <v>0.99000000000000021</v>
+        <v>0.9900000000000002</v>
       </c>
       <c r="E213" t="n">
-        <v>0.0039545535824816458</v>
+        <v>0.0043254320274517255</v>
       </c>
       <c r="F213" t="n">
-        <v>0.020190644966372018</v>
+        <v>0.019494250210004838</v>
       </c>
       <c r="G213" t="n">
-        <v>0.00028120209359494552</v>
+        <v>0.000598636740876568</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c s="1" r="A214" t="s">
-        <v>7</v>
+      <c r="A214" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="C214" t="n">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="D214" t="n">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="E214" t="n">
-        <v>0.0096111031189844986</v>
+        <v>0.009661207274320738</v>
       </c>
       <c r="F214" t="n">
-        <v>0.014817425310354126</v>
+        <v>0.014239118081600388</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0011970400464305087</v>
+        <v>0.0008566261619975535</v>
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c s="1" r="A215" t="s">
-        <v>26</v>
+      <c r="A215" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="C215" t="n">
         <v>2.7199999999999998</v>
@@ -6018,113 +6039,113 @@
         <v>1.29</v>
       </c>
       <c r="E215" t="n">
-        <v>0.006873388519473389</v>
+        <v>0.006754419872642581</v>
       </c>
       <c r="F215" t="n">
-        <v>0.023956113878078833</v>
+        <v>0.024319021457169132</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0030161950653961878</v>
+        <v>0.0024499370533732634</v>
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c s="1" r="A216" t="s">
-        <v>126</v>
+      <c r="A216" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="C216" t="n">
-        <v>2.3100000000000001</v>
+        <v>2.31</v>
       </c>
       <c r="D216" t="n">
         <v>1.04</v>
       </c>
       <c r="E216" t="n">
-        <v>0.0069477670779618528</v>
+        <v>0.0062982048432185245</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0017788786063044348</v>
+        <v>0.002367272997772618</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0014764712787955769</v>
+        <v>0.0021096569887470995</v>
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c s="1" r="A217" t="s">
-        <v>83</v>
+      <c r="A217" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>9.0999999999999996</v>
+        <v>9.2</v>
       </c>
       <c r="C217" t="n">
-        <v>3.1200000000000001</v>
+        <v>3.12</v>
       </c>
       <c r="D217" t="n">
         <v>1.0499999999999998</v>
       </c>
       <c r="E217" t="n">
-        <v>-0.0032391048292108593</v>
+        <v>-0.0038623736528550223</v>
       </c>
       <c r="F217" t="n">
-        <v>0.011360893757132562</v>
+        <v>0.01072579166557519</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0038412811484167531</v>
+        <v>0.004133796150205038</v>
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c s="1" r="A218" t="s">
-        <v>30</v>
+      <c r="A218" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>9.0</v>
+        <v>9.1</v>
       </c>
       <c r="C218" t="n">
         <v>3.21</v>
       </c>
       <c r="D218" t="n">
-        <v>0.85999999999999943</v>
+        <v>0.8599999999999994</v>
       </c>
       <c r="E218" t="n">
-        <v>0.0078756546260239091</v>
+        <v>0.0072775899954977685</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.00034877894973273094</v>
+        <v>-0.00033256885687016347</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0050212662753252868</v>
+        <v>0.004624080234526096</v>
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c s="1" r="A219" t="s">
-        <v>24</v>
+      <c r="A219" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B219" t="n">
         <v>9.0</v>
       </c>
       <c r="C219" t="n">
-        <v>2.8100000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="D219" t="n">
-        <v>0.83000000000000007</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="E219" t="n">
-        <v>0.003384117298302014</v>
+        <v>0.002101457010193819</v>
       </c>
       <c r="F219" t="n">
-        <v>0.011150778005217354</v>
+        <v>0.011968900947920691</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0070697275339521859</v>
+        <v>0.006515414899654459</v>
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c s="1" r="A220" t="s">
-        <v>176</v>
+      <c r="A220" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>8.9000000000000004</v>
+        <v>8.8</v>
       </c>
       <c r="C220" t="n">
         <v>2.04</v>
@@ -6133,44 +6154,44 @@
         <v>1.3900000000000001</v>
       </c>
       <c r="E220" t="n">
-        <v>0.01195052482721537</v>
+        <v>0.011264155088508865</v>
       </c>
       <c r="F220" t="n">
-        <v>0.012163386348291949</v>
+        <v>0.011081260800280157</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0048989807102635119</v>
+        <v>0.005509800874641924</v>
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c s="1" r="A221" t="s">
-        <v>183</v>
+      <c r="A221" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="C221" t="n">
-        <v>1.8500000000000001</v>
+        <v>1.85</v>
       </c>
       <c r="D221" t="n">
         <v>1.3800000000000003</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0091522821658431841</v>
+        <v>0.005575926742724002</v>
       </c>
       <c r="F221" t="n">
-        <v>0.015288018457498609</v>
+        <v>0.013587338049297015</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0056611188879125418</v>
+        <v>0.00602271322347625</v>
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c s="1" r="A222" t="s">
-        <v>191</v>
+      <c r="A222" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>8.0999999999999996</v>
+        <v>8.2</v>
       </c>
       <c r="C222" t="n">
         <v>1.8699999999999999</v>
@@ -6179,67 +6200,67 @@
         <v>1.2300000000000004</v>
       </c>
       <c r="E222" t="n">
-        <v>0.0029970874291360694</v>
+        <v>0.004039279869067158</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0068745133628358435</v>
+        <v>0.008140394729990064</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0052955356790009844</v>
+        <v>0.004841116573033544</v>
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c s="1" r="A223" t="s">
-        <v>225</v>
+      <c r="A223" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="C223" t="n">
-        <v>1.3400000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="D223" t="n">
         <v>1.4700000000000002</v>
       </c>
       <c r="E223" t="n">
-        <v>0.0068902039837435147</v>
+        <v>0.0061682108928255985</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0072261019315031927</v>
+        <v>0.009395991181508467</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0050317761907883174</v>
+        <v>0.0045295117125223605</v>
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c s="1" r="A224" t="s">
-        <v>159</v>
+      <c r="A224" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>7.9000000000000004</v>
+        <v>7.8</v>
       </c>
       <c r="C224" t="n">
-        <v>1.5700000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="D224" t="n">
         <v>1.1099999999999999</v>
       </c>
       <c r="E224" t="n">
-        <v>0.00036049954937555917</v>
+        <v>0.00015552805013197002</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.0073413416347964944</v>
+        <v>-0.004042736328642826</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0038853179311333363</v>
+        <v>0.00438733802939395</v>
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c s="1" r="A225" t="s">
-        <v>70</v>
+      <c r="A225" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>7.9000000000000004</v>
+        <v>8.0</v>
       </c>
       <c r="C225" t="n">
         <v>1.76</v>
@@ -6248,36 +6269,197 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="E225" t="n">
-        <v>0.0028507812298901314</v>
+        <v>0.006783856107090314</v>
       </c>
       <c r="F225" t="n">
-        <v>0.013717344634343487</v>
+        <v>0.011276205900457414</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0048356862388578836</v>
+        <v>0.005342245734645257</v>
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c s="1" r="A226" t="s">
-        <v>217</v>
+      <c r="A226" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="C226" t="n">
         <v>1.6400000000000001</v>
       </c>
       <c r="D226" t="n">
-        <v>0.85999999999999988</v>
+        <v>0.8599999999999999</v>
       </c>
       <c r="E226" t="n">
-        <v>0.0061473700421590394</v>
+        <v>0.0043891262935695785</v>
       </c>
       <c r="F226" t="n">
-        <v>0.005876582597614366</v>
+        <v>0.009174013600464992</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0033217295396970048</v>
+        <v>0.0027688902477360777</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9800000000000004</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.011104276395883739</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.0013291552211633917</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.004345846967783951</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.7799999999999994</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.00863757058029524</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.01383503346634063</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.004198770299044918</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.7399999999999998</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-0.0053090561817519255</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.004831430583520868</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.004836924125010578</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.6600000000000001</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.011287480182166076</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.01858130951640624</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.0047204189901524085</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.5700000000000003</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.012192075151151727</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.012390915654360679</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.004668719159883539</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.7700000000000005</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.005498099422421854</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.006476680217982533</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.003790661455731481</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9900000000000002</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-0.00042958753459709786</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.006737445990582458</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.0031406825025090956</v>
       </c>
     </row>
   </sheetData>
